--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X21 2200 bosquet replay.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X21 2200 bosquet replay.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,18 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -147,6 +135,15 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 2200</t>
+  </si>
+  <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>120w</t>
+  </si>
+  <si>
     <t>submax</t>
   </si>
   <si>
@@ -155,29 +152,375 @@
   <si>
     <t>stop, max</t>
   </si>
+  <si>
+    <t>---------------</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -185,20 +528,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -206,6 +838,1344 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$88</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="83"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000706018518518518</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000821759259259259</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.0009375</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.00105324074074074</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.00116898148148148</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00128472222222222</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00140046296296296</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.0015162037037037</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00163194444444444</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00174768518518519</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00186342592592593</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00197916666666667</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00209490740740741</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00221064814814815</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00232638888888889</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00244212962962963</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00255787037037037</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00267361111111111</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.00278935185185185</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00290509259259259</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00302083333333333</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00313657407407407</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00325231481481482</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.00336805555555556</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.0034837962962963</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00359953703703704</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00371527777777778</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00383101851851852</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.00394675925925926</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.0040625</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00417824074074074</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00429398148148148</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00440972222222222</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00452546296296296</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.0046412037037037</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00475694444444444</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00487268518518519</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00498842592592593</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00510416666666667</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00521990740740741</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00533564814814815</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00545138888888889</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00556712962962963</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00568287037037037</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00579861111111111</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.00591435185185185</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00603009259259259</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00614583333333333</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00626157407407407</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00637731481481481</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00649305555555555</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.0066087962962963</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00672453703703704</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.00684027777777778</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.00695601851851852</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.00707175925925926</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="h:mm:ss">
+                  <c:v>0.0071875</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="h:mm:ss">
+                  <c:v>0.00730324074074074</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="h:mm:ss">
+                  <c:v>0.00741898148148148</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="h:mm:ss">
+                  <c:v>0.00753472222222222</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="h:mm:ss">
+                  <c:v>0.00765046296296296</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="h:mm:ss">
+                  <c:v>0.0077662037037037</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="h:mm:ss">
+                  <c:v>0.00788194444444444</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="h:mm:ss">
+                  <c:v>0.00799768518518519</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="h:mm:ss">
+                  <c:v>0.00811342592592592</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="h:mm:ss">
+                  <c:v>0.00822916666666667</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="h:mm:ss">
+                  <c:v>0.00834490740740741</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="h:mm:ss">
+                  <c:v>0.00846064814814815</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="h:mm:ss">
+                  <c:v>0.00857638888888889</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="h:mm:ss">
+                  <c:v>0.00869212962962963</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="h:mm:ss">
+                  <c:v>0.00880787037037037</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="h:mm:ss">
+                  <c:v>0.00892361111111111</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="h:mm:ss">
+                  <c:v>0.00903935185185185</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="h:mm:ss">
+                  <c:v>0.00915509259259259</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="h:mm:ss">
+                  <c:v>0.00927083333333333</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="h:mm:ss">
+                  <c:v>0.00938657407407407</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="h:mm:ss">
+                  <c:v>0.00950231481481482</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="h:mm:ss">
+                  <c:v>0.00961805555555556</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="h:mm:ss">
+                  <c:v>0.0097337962962963</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="h:mm:ss">
+                  <c:v>0.00984953703703704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.83</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.81</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.55</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.67</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.01</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.93</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.87</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.39</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.64</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.32</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11.27</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.73</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.26</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13.93</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13.47</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13.24</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12.83</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12.89</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="182744391"/>
+        <c:axId val="217835968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="182744391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217835968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="217835968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182744391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474980</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2692400" y="139700"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,21 +2459,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M69" workbookViewId="0">
-      <selection activeCell="X76" sqref="X76"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -525,7 +2495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -584,52 +2554,52 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="21:35">
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -646,18 +2616,18 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0.43395833333333328</v>
+        <v>0.433958333333333</v>
       </c>
       <c r="C6">
         <v>84.76</v>
       </c>
       <c r="D6">
-        <v>71.930000000000007</v>
+        <v>71.93</v>
       </c>
       <c r="E6">
         <v>6.1</v>
@@ -690,7 +2660,7 @@
         <v>1747.23</v>
       </c>
       <c r="O6">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="P6">
         <v>102.23</v>
@@ -714,12 +2684,12 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>4.7453703703703704E-4</v>
+        <v>0.000474537037037037</v>
       </c>
       <c r="B7" s="1">
-        <v>0.43443287037037037</v>
+        <v>0.43443287037037</v>
       </c>
       <c r="C7">
         <v>78.63</v>
@@ -734,25 +2704,25 @@
         <v>3.58</v>
       </c>
       <c r="G7">
-        <v>65.180000000000007</v>
+        <v>65.18</v>
       </c>
       <c r="H7">
         <v>457.14</v>
       </c>
       <c r="I7">
-        <v>153.58000000000001</v>
+        <v>153.58</v>
       </c>
       <c r="J7">
         <v>118.93</v>
       </c>
       <c r="K7">
-        <v>71.709999999999994</v>
+        <v>71.71</v>
       </c>
       <c r="L7">
         <v>109.8</v>
       </c>
       <c r="M7">
-        <v>1153.6400000000001</v>
+        <v>1153.64</v>
       </c>
       <c r="N7">
         <v>1814.6</v>
@@ -767,7 +2737,7 @@
         <v>38.56</v>
       </c>
       <c r="S7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -785,15 +2755,15 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>5.9027777777777778E-4</v>
+        <v>0.000590277777777778</v>
       </c>
       <c r="B8" s="1">
-        <v>0.43454861111111115</v>
+        <v>0.434548611111111</v>
       </c>
       <c r="C8">
-        <v>77.150000000000006</v>
+        <v>77.15</v>
       </c>
       <c r="D8">
         <v>71.13</v>
@@ -853,12 +2823,12 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>7.0601851851851847E-4</v>
+        <v>0.000706018518518518</v>
       </c>
       <c r="B9" s="1">
-        <v>0.43466435185185182</v>
+        <v>0.434664351851852</v>
       </c>
       <c r="C9">
         <v>74.02</v>
@@ -867,7 +2837,7 @@
         <v>68.88</v>
       </c>
       <c r="E9">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F9">
         <v>3.24</v>
@@ -885,13 +2855,13 @@
         <v>118</v>
       </c>
       <c r="K9">
-        <v>70.849999999999994</v>
+        <v>70.85</v>
       </c>
       <c r="L9">
         <v>107.11</v>
       </c>
       <c r="M9">
-        <v>1250.1099999999999</v>
+        <v>1250.11</v>
       </c>
       <c r="N9">
         <v>1966.35</v>
@@ -903,7 +2873,7 @@
         <v>111.15</v>
       </c>
       <c r="Q9">
-        <v>40.450000000000003</v>
+        <v>40.45</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -921,12 +2891,12 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>8.2175925925925917E-4</v>
+        <v>0.000821759259259259</v>
       </c>
       <c r="B10" s="1">
-        <v>0.43478009259259259</v>
+        <v>0.434780092592593</v>
       </c>
       <c r="C10">
         <v>78.25</v>
@@ -953,13 +2923,13 @@
         <v>118</v>
       </c>
       <c r="K10">
-        <v>70.150000000000006</v>
+        <v>70.15</v>
       </c>
       <c r="L10">
         <v>107.06</v>
       </c>
       <c r="M10">
-        <v>1168.9100000000001</v>
+        <v>1168.91</v>
       </c>
       <c r="N10">
         <v>1838.63</v>
@@ -971,7 +2941,7 @@
         <v>110.51</v>
       </c>
       <c r="Q10">
-        <v>40.049999999999997</v>
+        <v>40.05</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -989,18 +2959,18 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>9.3750000000000007E-4</v>
+        <v>0.0009375</v>
       </c>
       <c r="B11" s="1">
-        <v>0.43489583333333331</v>
+        <v>0.434895833333333</v>
       </c>
       <c r="C11">
         <v>76.3</v>
       </c>
       <c r="D11">
-        <v>69.959999999999994</v>
+        <v>69.96</v>
       </c>
       <c r="E11">
         <v>5.34</v>
@@ -1027,7 +2997,7 @@
         <v>107.95</v>
       </c>
       <c r="M11">
-        <v>1197.1600000000001</v>
+        <v>1197.16</v>
       </c>
       <c r="N11">
         <v>1883.06</v>
@@ -1057,12 +3027,12 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>1.0532407407407407E-3</v>
+        <v>0.00105324074074074</v>
       </c>
       <c r="B12" s="1">
-        <v>0.43501157407407409</v>
+        <v>0.435011574074074</v>
       </c>
       <c r="C12">
         <v>74.89</v>
@@ -1077,7 +3047,7 @@
         <v>3.41</v>
       </c>
       <c r="G12">
-        <v>65.040000000000006</v>
+        <v>65.04</v>
       </c>
       <c r="H12">
         <v>448.92</v>
@@ -1089,7 +3059,7 @@
         <v>118.85</v>
       </c>
       <c r="K12">
-        <v>70.849999999999994</v>
+        <v>70.85</v>
       </c>
       <c r="L12">
         <v>110.02</v>
@@ -1125,18 +3095,18 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>1.1689814814814816E-3</v>
+        <v>0.00116898148148148</v>
       </c>
       <c r="B13" s="1">
-        <v>0.43512731481481487</v>
+        <v>0.435127314814815</v>
       </c>
       <c r="C13">
-        <v>77.569999999999993</v>
+        <v>77.57</v>
       </c>
       <c r="D13">
-        <v>71.209999999999994</v>
+        <v>71.21</v>
       </c>
       <c r="E13">
         <v>5.52</v>
@@ -1157,7 +3127,7 @@
         <v>117.15</v>
       </c>
       <c r="K13">
-        <v>69.150000000000006</v>
+        <v>69.15</v>
       </c>
       <c r="L13">
         <v>110.53</v>
@@ -1193,15 +3163,15 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>1.2847222222222223E-3</v>
+        <v>0.00128472222222222</v>
       </c>
       <c r="B14" s="1">
-        <v>0.43524305555555554</v>
+        <v>0.435243055555556</v>
       </c>
       <c r="C14">
-        <v>80.209999999999994</v>
+        <v>80.21</v>
       </c>
       <c r="D14">
         <v>70.69</v>
@@ -1213,7 +3183,7 @@
         <v>3.6</v>
       </c>
       <c r="G14">
-        <v>64.819999999999993</v>
+        <v>64.82</v>
       </c>
       <c r="H14">
         <v>431.08</v>
@@ -1225,13 +3195,13 @@
         <v>118.08</v>
       </c>
       <c r="K14">
-        <v>70.150000000000006</v>
+        <v>70.15</v>
       </c>
       <c r="L14">
         <v>109.05</v>
       </c>
       <c r="M14">
-        <v>1117.3399999999999</v>
+        <v>1117.34</v>
       </c>
       <c r="N14">
         <v>1757.51</v>
@@ -1243,7 +3213,7 @@
         <v>100.94</v>
       </c>
       <c r="Q14">
-        <v>38.450000000000003</v>
+        <v>38.45</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -1261,18 +3231,18 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>1.4004629629629629E-3</v>
+        <v>0.00140046296296296</v>
       </c>
       <c r="B15" s="1">
-        <v>0.43535879629629631</v>
+        <v>0.435358796296296</v>
       </c>
       <c r="C15">
         <v>76.69</v>
       </c>
       <c r="D15">
-        <v>71.319999999999993</v>
+        <v>71.32</v>
       </c>
       <c r="E15">
         <v>5.47</v>
@@ -1293,7 +3263,7 @@
         <v>118.85</v>
       </c>
       <c r="K15">
-        <v>71.849999999999994</v>
+        <v>71.85</v>
       </c>
       <c r="L15">
         <v>109.79</v>
@@ -1329,18 +3299,18 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>1.5162037037037036E-3</v>
+        <v>0.0015162037037037</v>
       </c>
       <c r="B16" s="1">
-        <v>0.43547453703703703</v>
+        <v>0.435474537037037</v>
       </c>
       <c r="C16">
-        <v>79.569999999999993</v>
+        <v>79.57</v>
       </c>
       <c r="D16">
-        <v>69.319999999999993</v>
+        <v>69.32</v>
       </c>
       <c r="E16">
         <v>5.51</v>
@@ -1349,7 +3319,7 @@
         <v>3.51</v>
       </c>
       <c r="G16">
-        <v>64.180000000000007</v>
+        <v>64.18</v>
       </c>
       <c r="H16">
         <v>443.38</v>
@@ -1397,12 +3367,12 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>1.6319444444444445E-3</v>
+        <v>0.00163194444444444</v>
       </c>
       <c r="B17" s="1">
-        <v>0.43559027777777781</v>
+        <v>0.435590277777778</v>
       </c>
       <c r="C17">
         <v>85.24</v>
@@ -1441,7 +3411,7 @@
         <v>1632.74</v>
       </c>
       <c r="O17">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="P17">
         <v>101.41</v>
@@ -1465,12 +3435,12 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>1.7476851851851852E-3</v>
+        <v>0.00174768518518519</v>
       </c>
       <c r="B18" s="1">
-        <v>0.43570601851851848</v>
+        <v>0.435706018518518</v>
       </c>
       <c r="C18">
         <v>90.91</v>
@@ -1509,7 +3479,7 @@
         <v>1497.78</v>
       </c>
       <c r="O18">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="P18">
         <v>96.31</v>
@@ -1533,12 +3503,12 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>1.8634259259259261E-3</v>
+        <v>0.00186342592592593</v>
       </c>
       <c r="B19" s="1">
-        <v>0.43582175925925926</v>
+        <v>0.435821759259259</v>
       </c>
       <c r="C19">
         <v>88.47</v>
@@ -1559,7 +3529,7 @@
         <v>440.53</v>
       </c>
       <c r="I19">
-        <v>152.94999999999999</v>
+        <v>152.95</v>
       </c>
       <c r="J19">
         <v>119</v>
@@ -1577,7 +3547,7 @@
         <v>1587.62</v>
       </c>
       <c r="O19">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="P19">
         <v>98.59</v>
@@ -1601,24 +3571,24 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>1.9791666666666668E-3</v>
+        <v>0.00197916666666667</v>
       </c>
       <c r="B20" s="1">
-        <v>0.43593750000000003</v>
+        <v>0.4359375</v>
       </c>
       <c r="C20">
         <v>87.09</v>
       </c>
       <c r="D20">
-        <v>73.349999999999994</v>
+        <v>73.35</v>
       </c>
       <c r="E20">
         <v>6.39</v>
       </c>
       <c r="F20">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="G20">
         <v>65.58</v>
@@ -1633,7 +3603,7 @@
         <v>119</v>
       </c>
       <c r="K20">
-        <v>70.069999999999993</v>
+        <v>70.07</v>
       </c>
       <c r="L20">
         <v>111.86</v>
@@ -1669,18 +3639,18 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>2.0949074074074073E-3</v>
+        <v>0.00209490740740741</v>
       </c>
       <c r="B21" s="1">
-        <v>0.43605324074074076</v>
+        <v>0.436053240740741</v>
       </c>
       <c r="C21">
         <v>82.83</v>
       </c>
       <c r="D21">
-        <v>70.069999999999993</v>
+        <v>70.07</v>
       </c>
       <c r="E21">
         <v>5.81</v>
@@ -1701,13 +3671,13 @@
         <v>119</v>
       </c>
       <c r="K21">
-        <v>70.930000000000007</v>
+        <v>70.93</v>
       </c>
       <c r="L21">
         <v>107.39</v>
       </c>
       <c r="M21">
-        <v>1105.6500000000001</v>
+        <v>1105.65</v>
       </c>
       <c r="N21">
         <v>1739.12</v>
@@ -1737,18 +3707,18 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>2.2106481481481478E-3</v>
+        <v>0.00221064814814815</v>
       </c>
       <c r="B22" s="1">
-        <v>0.43616898148148148</v>
+        <v>0.436168981481481</v>
       </c>
       <c r="C22">
         <v>83.07</v>
       </c>
       <c r="D22">
-        <v>69.680000000000007</v>
+        <v>69.68</v>
       </c>
       <c r="E22">
         <v>5.79</v>
@@ -1763,19 +3733,19 @@
         <v>438</v>
       </c>
       <c r="I22">
-        <v>153.97999999999999</v>
+        <v>153.98</v>
       </c>
       <c r="J22">
         <v>119</v>
       </c>
       <c r="K22">
-        <v>70.069999999999993</v>
+        <v>70.07</v>
       </c>
       <c r="L22">
         <v>106.85</v>
       </c>
       <c r="M22">
-        <v>1100.6600000000001</v>
+        <v>1100.66</v>
       </c>
       <c r="N22">
         <v>1731.28</v>
@@ -1805,12 +3775,12 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>2.3263888888888887E-3</v>
+        <v>0.00232638888888889</v>
       </c>
       <c r="B23" s="1">
-        <v>0.4362847222222222</v>
+        <v>0.436284722222222</v>
       </c>
       <c r="C23">
         <v>76.05</v>
@@ -1849,7 +3819,7 @@
         <v>1771.95</v>
       </c>
       <c r="O23">
-        <v>4.0199999999999996</v>
+        <v>4.02</v>
       </c>
       <c r="P23">
         <v>111.41</v>
@@ -1873,18 +3843,18 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>2.4421296296296296E-3</v>
+        <v>0.00244212962962963</v>
       </c>
       <c r="B24" s="1">
-        <v>0.43640046296296298</v>
+        <v>0.436400462962963</v>
       </c>
       <c r="C24">
         <v>68.88</v>
       </c>
       <c r="D24">
-        <v>75.150000000000006</v>
+        <v>75.15</v>
       </c>
       <c r="E24">
         <v>5.18</v>
@@ -1899,7 +3869,7 @@
         <v>471.64</v>
       </c>
       <c r="I24">
-        <v>140.61000000000001</v>
+        <v>140.61</v>
       </c>
       <c r="J24">
         <v>116.91</v>
@@ -1911,7 +3881,7 @@
         <v>117.89</v>
       </c>
       <c r="M24">
-        <v>1238.8699999999999</v>
+        <v>1238.87</v>
       </c>
       <c r="N24">
         <v>1948.67</v>
@@ -1941,12 +3911,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>2.5578703703703705E-3</v>
+        <v>0.00255787037037037</v>
       </c>
       <c r="B25" s="1">
-        <v>0.43651620370370375</v>
+        <v>0.436516203703704</v>
       </c>
       <c r="C25">
         <v>69.69</v>
@@ -1955,7 +3925,7 @@
         <v>66.56</v>
       </c>
       <c r="E25">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="F25">
         <v>2.95</v>
@@ -2009,15 +3979,15 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.673611111111111E-3</v>
+        <v>0.00267361111111111</v>
       </c>
       <c r="B26" s="1">
-        <v>0.43663194444444442</v>
+        <v>0.436631944444444</v>
       </c>
       <c r="C26">
-        <v>70.099999999999994</v>
+        <v>70.1</v>
       </c>
       <c r="D26">
         <v>66.75</v>
@@ -2035,7 +4005,7 @@
         <v>457.09</v>
       </c>
       <c r="I26">
-        <v>138.83000000000001</v>
+        <v>138.83</v>
       </c>
       <c r="J26">
         <v>116.91</v>
@@ -2077,15 +4047,15 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>2.7893518518518519E-3</v>
+        <v>0.00278935185185185</v>
       </c>
       <c r="B27" s="1">
-        <v>0.4367476851851852</v>
+        <v>0.436747685185185</v>
       </c>
       <c r="C27">
-        <v>71.900000000000006</v>
+        <v>71.9</v>
       </c>
       <c r="D27">
         <v>70.13</v>
@@ -2103,7 +4073,7 @@
         <v>433.33</v>
       </c>
       <c r="I27">
-        <v>138.47999999999999</v>
+        <v>138.48</v>
       </c>
       <c r="J27">
         <v>116</v>
@@ -2115,7 +4085,7 @@
         <v>110.44</v>
       </c>
       <c r="M27">
-        <v>1243.1099999999999</v>
+        <v>1243.11</v>
       </c>
       <c r="N27">
         <v>1955.34</v>
@@ -2127,7 +4097,7 @@
         <v>104.6</v>
       </c>
       <c r="Q27">
-        <v>39.909999999999997</v>
+        <v>39.91</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -2145,18 +4115,18 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>2.9050925925925928E-3</v>
+        <v>0.00290509259259259</v>
       </c>
       <c r="B28" s="1">
-        <v>0.43686342592592592</v>
+        <v>0.436863425925926</v>
       </c>
       <c r="C28">
         <v>74.13</v>
       </c>
       <c r="D28">
-        <v>72.819999999999993</v>
+        <v>72.82</v>
       </c>
       <c r="E28">
         <v>5.4</v>
@@ -2213,12 +4183,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>3.0208333333333333E-3</v>
+        <v>0.00302083333333333</v>
       </c>
       <c r="B29" s="1">
-        <v>0.4369791666666667</v>
+        <v>0.436979166666667</v>
       </c>
       <c r="C29">
         <v>75.16</v>
@@ -2251,7 +4221,7 @@
         <v>111.16</v>
       </c>
       <c r="M29">
-        <v>1205.8900000000001</v>
+        <v>1205.89</v>
       </c>
       <c r="N29">
         <v>1896.8</v>
@@ -2281,12 +4251,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>3.1365740740740742E-3</v>
+        <v>0.00313657407407407</v>
       </c>
       <c r="B30" s="1">
-        <v>0.43709490740740736</v>
+        <v>0.437094907407407</v>
       </c>
       <c r="C30">
         <v>72.98</v>
@@ -2349,18 +4319,18 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.2523148148148151E-3</v>
+        <v>0.00325231481481482</v>
       </c>
       <c r="B31" s="1">
-        <v>0.43721064814814814</v>
+        <v>0.437210648148148</v>
       </c>
       <c r="C31">
         <v>74.36</v>
       </c>
       <c r="D31">
-        <v>64.209999999999994</v>
+        <v>64.21</v>
       </c>
       <c r="E31">
         <v>4.78</v>
@@ -2375,13 +4345,13 @@
         <v>456.92</v>
       </c>
       <c r="I31">
-        <v>134.19999999999999</v>
+        <v>134.2</v>
       </c>
       <c r="J31">
         <v>115.92</v>
       </c>
       <c r="K31">
-        <v>70.849999999999994</v>
+        <v>70.85</v>
       </c>
       <c r="L31">
         <v>101.91</v>
@@ -2417,12 +4387,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.3680555555555551E-3</v>
+        <v>0.00336805555555556</v>
       </c>
       <c r="B32" s="1">
-        <v>0.43732638888888892</v>
+        <v>0.437326388888889</v>
       </c>
       <c r="C32">
         <v>75.48</v>
@@ -2443,7 +4413,7 @@
         <v>433.67</v>
       </c>
       <c r="I32">
-        <v>130.69999999999999</v>
+        <v>130.7</v>
       </c>
       <c r="J32">
         <v>115</v>
@@ -2485,12 +4455,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.483796296296296E-3</v>
+        <v>0.0034837962962963</v>
       </c>
       <c r="B33" s="1">
-        <v>0.43744212962962964</v>
+        <v>0.43744212962963</v>
       </c>
       <c r="C33">
         <v>77.58</v>
@@ -2535,7 +4505,7 @@
         <v>97.52</v>
       </c>
       <c r="Q33">
-        <v>38.520000000000003</v>
+        <v>38.52</v>
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -2553,18 +4523,18 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.5995370370370369E-3</v>
+        <v>0.00359953703703704</v>
       </c>
       <c r="B34" s="1">
-        <v>0.43755787037037036</v>
+        <v>0.43755787037037</v>
       </c>
       <c r="C34">
-        <v>79.349999999999994</v>
+        <v>79.35</v>
       </c>
       <c r="D34">
-        <v>66.650000000000006</v>
+        <v>66.65</v>
       </c>
       <c r="E34">
         <v>5.29</v>
@@ -2621,18 +4591,18 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.7152777777777774E-3</v>
+        <v>0.00371527777777778</v>
       </c>
       <c r="B35" s="1">
-        <v>0.43767361111111108</v>
+        <v>0.437673611111111</v>
       </c>
       <c r="C35">
         <v>76.62</v>
       </c>
       <c r="D35">
-        <v>66.099999999999994</v>
+        <v>66.1</v>
       </c>
       <c r="E35">
         <v>5.07</v>
@@ -2671,7 +4641,7 @@
         <v>92.31</v>
       </c>
       <c r="Q35">
-        <v>38.380000000000003</v>
+        <v>38.38</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -2689,12 +4659,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>3.8310185185185183E-3</v>
+        <v>0.00383101851851852</v>
       </c>
       <c r="B36" s="1">
-        <v>0.43778935185185186</v>
+        <v>0.437789351851852</v>
       </c>
       <c r="C36">
         <v>76.86</v>
@@ -2703,7 +4673,7 @@
         <v>62.65</v>
       </c>
       <c r="E36">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="F36">
         <v>3.06</v>
@@ -2757,21 +4727,21 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>3.9467592592592592E-3</v>
+        <v>0.00394675925925926</v>
       </c>
       <c r="B37" s="1">
-        <v>0.43790509259259264</v>
+        <v>0.437905092592593</v>
       </c>
       <c r="C37">
         <v>79.12</v>
       </c>
       <c r="D37">
-        <v>64.540000000000006</v>
+        <v>64.54</v>
       </c>
       <c r="E37">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="F37">
         <v>3.25</v>
@@ -2783,7 +4753,7 @@
         <v>431.69</v>
       </c>
       <c r="I37">
-        <v>130.13999999999999</v>
+        <v>130.14</v>
       </c>
       <c r="J37">
         <v>114</v>
@@ -2825,15 +4795,15 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>4.0624999999999993E-3</v>
+        <v>0.0040625</v>
       </c>
       <c r="B38" s="1">
-        <v>0.4380208333333333</v>
+        <v>0.438020833333333</v>
       </c>
       <c r="C38">
-        <v>76.349999999999994</v>
+        <v>76.35</v>
       </c>
       <c r="D38">
         <v>65.11</v>
@@ -2851,7 +4821,7 @@
         <v>442.15</v>
       </c>
       <c r="I38">
-        <v>128.86000000000001</v>
+        <v>128.86</v>
       </c>
       <c r="J38">
         <v>114</v>
@@ -2893,18 +4863,18 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>4.1782407407407402E-3</v>
+        <v>0.00417824074074074</v>
       </c>
       <c r="B39" s="1">
-        <v>0.43813657407407408</v>
+        <v>0.438136574074074</v>
       </c>
       <c r="C39">
         <v>74.2</v>
       </c>
       <c r="D39">
-        <v>64.430000000000007</v>
+        <v>64.43</v>
       </c>
       <c r="E39">
         <v>4.78</v>
@@ -2934,7 +4904,7 @@
         <v>1314.73</v>
       </c>
       <c r="N39">
-        <v>2067.9899999999998</v>
+        <v>2067.99</v>
       </c>
       <c r="O39">
         <v>3.29</v>
@@ -2961,12 +4931,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.2939814814814811E-3</v>
+        <v>0.00429398148148148</v>
       </c>
       <c r="B40" s="1">
-        <v>0.4382523148148148</v>
+        <v>0.438252314814815</v>
       </c>
       <c r="C40">
         <v>76.53</v>
@@ -2975,7 +4945,7 @@
         <v>63.35</v>
       </c>
       <c r="E40">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="F40">
         <v>3.08</v>
@@ -3029,18 +4999,18 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.409722222222222E-3</v>
+        <v>0.00440972222222222</v>
       </c>
       <c r="B41" s="1">
-        <v>0.43836805555555558</v>
+        <v>0.438368055555556</v>
       </c>
       <c r="C41">
         <v>76.45</v>
       </c>
       <c r="D41">
-        <v>65.290000000000006</v>
+        <v>65.29</v>
       </c>
       <c r="E41">
         <v>4.99</v>
@@ -3055,13 +5025,13 @@
         <v>448.31</v>
       </c>
       <c r="I41">
-        <v>129.52000000000001</v>
+        <v>129.52</v>
       </c>
       <c r="J41">
         <v>114.85</v>
       </c>
       <c r="K41">
-        <v>69.849999999999994</v>
+        <v>69.85</v>
       </c>
       <c r="L41">
         <v>104.55</v>
@@ -3097,21 +5067,21 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.5254629629629629E-3</v>
+        <v>0.00452546296296296</v>
       </c>
       <c r="B42" s="1">
-        <v>0.43848379629629625</v>
+        <v>0.438483796296296</v>
       </c>
       <c r="C42">
-        <v>76.239999999999995</v>
+        <v>76.24</v>
       </c>
       <c r="D42">
         <v>66.86</v>
       </c>
       <c r="E42">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F42">
         <v>3.24</v>
@@ -3165,12 +5135,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.6412037037037038E-3</v>
+        <v>0.0046412037037037</v>
       </c>
       <c r="B43" s="1">
-        <v>0.43859953703703702</v>
+        <v>0.438599537037037</v>
       </c>
       <c r="C43">
         <v>79.87</v>
@@ -3203,7 +5173,7 @@
         <v>107.82</v>
       </c>
       <c r="M43">
-        <v>1155.8800000000001</v>
+        <v>1155.88</v>
       </c>
       <c r="N43">
         <v>1818.13</v>
@@ -3233,18 +5203,18 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.7569444444444447E-3</v>
+        <v>0.00475694444444444</v>
       </c>
       <c r="B44" s="1">
-        <v>0.4387152777777778</v>
+        <v>0.438715277777778</v>
       </c>
       <c r="C44">
         <v>84.77</v>
       </c>
       <c r="D44">
-        <v>68.489999999999995</v>
+        <v>68.49</v>
       </c>
       <c r="E44">
         <v>5.81</v>
@@ -3265,7 +5235,7 @@
         <v>115.29</v>
       </c>
       <c r="K44">
-        <v>69.290000000000006</v>
+        <v>69.29</v>
       </c>
       <c r="L44">
         <v>108.67</v>
@@ -3301,18 +5271,18 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>4.8726851851851856E-3</v>
+        <v>0.00487268518518519</v>
       </c>
       <c r="B45" s="1">
-        <v>0.43883101851851852</v>
+        <v>0.438831018518519</v>
       </c>
       <c r="C45">
         <v>80.88</v>
       </c>
       <c r="D45">
-        <v>69.209999999999994</v>
+        <v>69.21</v>
       </c>
       <c r="E45">
         <v>5.6</v>
@@ -3339,7 +5309,7 @@
         <v>108.68</v>
       </c>
       <c r="M45">
-        <v>1138.6500000000001</v>
+        <v>1138.65</v>
       </c>
       <c r="N45">
         <v>1791.03</v>
@@ -3355,15 +5325,15 @@
       </c>
       <c r="U45" s="2">
         <f>AVERAGE(C6:C45)</f>
-        <v>77.97999999999999</v>
+        <v>77.98</v>
       </c>
       <c r="V45" s="2">
         <f t="shared" ref="V45:AI45" si="0">AVERAGE(D6:D45)</f>
-        <v>68.731250000000003</v>
+        <v>68.73125</v>
       </c>
       <c r="W45" s="2">
         <f t="shared" si="0"/>
-        <v>5.365499999999999</v>
+        <v>5.3655</v>
       </c>
       <c r="X45" s="2">
         <f t="shared" si="0"/>
@@ -3371,15 +5341,15 @@
       </c>
       <c r="Y45" s="2">
         <f t="shared" si="0"/>
-        <v>63.753999999999998</v>
+        <v>63.754</v>
       </c>
       <c r="Z45" s="2">
         <f t="shared" si="0"/>
-        <v>442.83499999999992</v>
+        <v>442.835</v>
       </c>
       <c r="AA45" s="2">
         <f t="shared" si="0"/>
-        <v>140.99574999999999</v>
+        <v>140.99575</v>
       </c>
       <c r="AB45" s="2">
         <f t="shared" si="0"/>
@@ -3395,15 +5365,15 @@
       </c>
       <c r="AE45" s="2">
         <f t="shared" si="0"/>
-        <v>1187.7805000000001</v>
+        <v>1187.7805</v>
       </c>
       <c r="AF45" s="2">
         <f t="shared" si="0"/>
-        <v>1868.3097499999999</v>
+        <v>1868.30975</v>
       </c>
       <c r="AG45" s="2">
         <f t="shared" si="0"/>
-        <v>3.7282500000000005</v>
+        <v>3.72825</v>
       </c>
       <c r="AH45" s="2">
         <f t="shared" si="0"/>
@@ -3411,15 +5381,15 @@
       </c>
       <c r="AI45" s="2">
         <f t="shared" si="0"/>
-        <v>41.382249999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+        <v>41.38225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>4.9884259259259265E-3</v>
+        <v>0.00498842592592593</v>
       </c>
       <c r="B46" s="1">
-        <v>0.43894675925925924</v>
+        <v>0.438946759259259</v>
       </c>
       <c r="C46">
         <v>85.18</v>
@@ -3452,7 +5422,7 @@
         <v>107.4</v>
       </c>
       <c r="M46">
-        <v>1086.1500000000001</v>
+        <v>1086.15</v>
       </c>
       <c r="N46">
         <v>1708.46</v>
@@ -3482,18 +5452,18 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>5.1041666666666666E-3</v>
+        <v>0.00510416666666667</v>
       </c>
       <c r="B47" s="1">
-        <v>0.43906249999999997</v>
+        <v>0.4390625</v>
       </c>
       <c r="C47">
         <v>82.98</v>
       </c>
       <c r="D47">
-        <v>67.010000000000005</v>
+        <v>67.01</v>
       </c>
       <c r="E47">
         <v>5.56</v>
@@ -3550,12 +5520,12 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>5.2199074074074066E-3</v>
+        <v>0.00521990740740741</v>
       </c>
       <c r="B48" s="1">
-        <v>0.43917824074074074</v>
+        <v>0.439178240740741</v>
       </c>
       <c r="C48">
         <v>83.08</v>
@@ -3588,7 +5558,7 @@
         <v>103.89</v>
       </c>
       <c r="M48">
-        <v>1156.3399999999999</v>
+        <v>1156.34</v>
       </c>
       <c r="N48">
         <v>1818.86</v>
@@ -3618,12 +5588,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.3356481481481484E-3</v>
+        <v>0.00533564814814815</v>
       </c>
       <c r="B49" s="1">
-        <v>0.43929398148148152</v>
+        <v>0.439293981481482</v>
       </c>
       <c r="C49">
         <v>81.2</v>
@@ -3650,13 +5620,13 @@
         <v>114.85</v>
       </c>
       <c r="K49">
-        <v>69.849999999999994</v>
+        <v>69.85</v>
       </c>
       <c r="L49">
         <v>101.98</v>
       </c>
       <c r="M49">
-        <v>1204.5899999999999</v>
+        <v>1204.59</v>
       </c>
       <c r="N49">
         <v>1894.75</v>
@@ -3686,12 +5656,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.4513888888888884E-3</v>
+        <v>0.00545138888888889</v>
       </c>
       <c r="B50" s="1">
-        <v>0.43940972222222219</v>
+        <v>0.439409722222222</v>
       </c>
       <c r="C50">
         <v>85.52</v>
@@ -3739,7 +5709,7 @@
         <v>48.77</v>
       </c>
       <c r="S50" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -3757,18 +5727,18 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.5671296296296302E-3</v>
+        <v>0.00556712962962963</v>
       </c>
       <c r="B51" s="1">
-        <v>0.43952546296296297</v>
+        <v>0.439525462962963</v>
       </c>
       <c r="C51">
         <v>98.92</v>
       </c>
       <c r="D51">
-        <v>69.989999999999995</v>
+        <v>69.99</v>
       </c>
       <c r="E51">
         <v>6.95</v>
@@ -3825,12 +5795,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.6828703703703702E-3</v>
+        <v>0.00568287037037037</v>
       </c>
       <c r="B52" s="1">
-        <v>0.43964120370370369</v>
+        <v>0.439641203703704</v>
       </c>
       <c r="C52">
         <v>119.85</v>
@@ -3839,7 +5809,7 @@
         <v>71.39</v>
       </c>
       <c r="E52">
-        <v>8.5500000000000007</v>
+        <v>8.55</v>
       </c>
       <c r="F52">
         <v>5.44</v>
@@ -3893,12 +5863,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.7986111111111112E-3</v>
+        <v>0.00579861111111111</v>
       </c>
       <c r="B53" s="1">
-        <v>0.43975694444444446</v>
+        <v>0.439756944444444</v>
       </c>
       <c r="C53">
         <v>124.09</v>
@@ -3907,7 +5877,7 @@
         <v>76.12</v>
       </c>
       <c r="E53">
-        <v>9.4499999999999993</v>
+        <v>9.45</v>
       </c>
       <c r="F53">
         <v>6.01</v>
@@ -3919,7 +5889,7 @@
         <v>240</v>
       </c>
       <c r="I53">
-        <v>138.97999999999999</v>
+        <v>138.98</v>
       </c>
       <c r="J53">
         <v>113.5</v>
@@ -3961,18 +5931,18 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>5.9143518518518521E-3</v>
+        <v>0.00591435185185185</v>
       </c>
       <c r="B54" s="1">
-        <v>0.43987268518518513</v>
+        <v>0.439872685185185</v>
       </c>
       <c r="C54">
         <v>127.07</v>
       </c>
       <c r="D54">
-        <v>79.959999999999994</v>
+        <v>79.96</v>
       </c>
       <c r="E54">
         <v>10.16</v>
@@ -4008,7 +5978,7 @@
         <v>5.94</v>
       </c>
       <c r="P54">
-        <v>79.010000000000005</v>
+        <v>79.01</v>
       </c>
       <c r="Q54">
         <v>44.58</v>
@@ -4029,18 +5999,18 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>6.030092592592593E-3</v>
+        <v>0.00603009259259259</v>
       </c>
       <c r="B55" s="1">
-        <v>0.43998842592592591</v>
+        <v>0.439988425925926</v>
       </c>
       <c r="C55">
         <v>126.45</v>
       </c>
       <c r="D55">
-        <v>76.459999999999994</v>
+        <v>76.46</v>
       </c>
       <c r="E55">
         <v>9.67</v>
@@ -4049,7 +6019,7 @@
         <v>6.15</v>
       </c>
       <c r="G55">
-        <v>65.819999999999993</v>
+        <v>65.82</v>
       </c>
       <c r="H55">
         <v>224.91</v>
@@ -4097,12 +6067,12 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>6.145833333333333E-3</v>
+        <v>0.00614583333333333</v>
       </c>
       <c r="B56" s="1">
-        <v>0.44010416666666669</v>
+        <v>0.440104166666667</v>
       </c>
       <c r="C56">
         <v>125.83</v>
@@ -4165,18 +6135,18 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>6.2615740740740748E-3</v>
+        <v>0.00626157407407407</v>
       </c>
       <c r="B57" s="1">
-        <v>0.44021990740740741</v>
+        <v>0.440219907407407</v>
       </c>
       <c r="C57">
         <v>122.24</v>
       </c>
       <c r="D57">
-        <v>74.400000000000006</v>
+        <v>74.4</v>
       </c>
       <c r="E57">
         <v>9.1</v>
@@ -4191,7 +6161,7 @@
         <v>252</v>
       </c>
       <c r="I57">
-        <v>156.02000000000001</v>
+        <v>156.02</v>
       </c>
       <c r="J57">
         <v>116.29</v>
@@ -4233,18 +6203,18 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>6.3773148148148148E-3</v>
+        <v>0.00637731481481481</v>
       </c>
       <c r="B58" s="1">
-        <v>0.44033564814814818</v>
+        <v>0.440335648148148</v>
       </c>
       <c r="C58">
         <v>127.59</v>
       </c>
       <c r="D58">
-        <v>77.209999999999994</v>
+        <v>77.21</v>
       </c>
       <c r="E58">
         <v>9.85</v>
@@ -4253,7 +6223,7 @@
         <v>6.26</v>
       </c>
       <c r="G58">
-        <v>66.540000000000006</v>
+        <v>66.54</v>
       </c>
       <c r="H58">
         <v>240.76</v>
@@ -4301,18 +6271,18 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>6.4930555555555549E-3</v>
+        <v>0.00649305555555555</v>
       </c>
       <c r="B59" s="1">
-        <v>0.44045138888888885</v>
+        <v>0.440451388888889</v>
       </c>
       <c r="C59">
-        <v>129.88999999999999</v>
+        <v>129.89</v>
       </c>
       <c r="D59">
-        <v>75.069999999999993</v>
+        <v>75.07</v>
       </c>
       <c r="E59">
         <v>9.75</v>
@@ -4339,7 +6309,7 @@
         <v>113.15</v>
       </c>
       <c r="M59">
-        <v>550.58000000000004</v>
+        <v>550.58</v>
       </c>
       <c r="N59">
         <v>866.02</v>
@@ -4369,21 +6339,21 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>6.6087962962962966E-3</v>
+        <v>0.0066087962962963</v>
       </c>
       <c r="B60" s="1">
-        <v>0.44056712962962963</v>
+        <v>0.44056712962963</v>
       </c>
       <c r="C60">
         <v>129.24</v>
       </c>
       <c r="D60">
-        <v>75.040000000000006</v>
+        <v>75.04</v>
       </c>
       <c r="E60">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="F60">
         <v>6.17</v>
@@ -4437,15 +6407,15 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>6.7245370370370367E-3</v>
+        <v>0.00672453703703704</v>
       </c>
       <c r="B61" s="1">
-        <v>0.44068287037037041</v>
+        <v>0.44068287037037</v>
       </c>
       <c r="C61">
-        <v>133.58000000000001</v>
+        <v>133.58</v>
       </c>
       <c r="D61">
         <v>78.14</v>
@@ -4505,12 +6475,12 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>6.8402777777777776E-3</v>
+        <v>0.00684027777777778</v>
       </c>
       <c r="B62" s="1">
-        <v>0.44079861111111113</v>
+        <v>0.440798611111111</v>
       </c>
       <c r="C62">
         <v>133.34</v>
@@ -4525,7 +6495,7 @@
         <v>6.2</v>
       </c>
       <c r="G62">
-        <v>66.260000000000005</v>
+        <v>66.26</v>
       </c>
       <c r="H62">
         <v>284.73</v>
@@ -4543,7 +6513,7 @@
         <v>110.35</v>
       </c>
       <c r="M62">
-        <v>552.83000000000004</v>
+        <v>552.83</v>
       </c>
       <c r="N62">
         <v>869.56</v>
@@ -4573,12 +6543,12 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>6.9560185185185185E-3</v>
+        <v>0.00695601851851852</v>
       </c>
       <c r="B63" s="1">
-        <v>0.44091435185185185</v>
+        <v>0.440914351851852</v>
       </c>
       <c r="C63">
         <v>136.62</v>
@@ -4641,15 +6611,15 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>7.0717592592592594E-3</v>
+        <v>0.00707175925925926</v>
       </c>
       <c r="B64" s="1">
-        <v>0.44103009259259257</v>
+        <v>0.441030092592593</v>
       </c>
       <c r="C64">
-        <v>135.94999999999999</v>
+        <v>135.95</v>
       </c>
       <c r="D64">
         <v>73.62</v>
@@ -4688,7 +6658,7 @@
         <v>5.83</v>
       </c>
       <c r="P64">
-        <v>80.040000000000006</v>
+        <v>80.04</v>
       </c>
       <c r="Q64">
         <v>41.97</v>
@@ -4709,12 +6679,12 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>7.1874999999999994E-3</v>
+        <v>0.0071875</v>
       </c>
       <c r="B65" s="1">
-        <v>0.44114583333333335</v>
+        <v>0.441145833333333</v>
       </c>
       <c r="C65">
         <v>138.69</v>
@@ -4756,7 +6726,7 @@
         <v>6.14</v>
       </c>
       <c r="P65">
-        <v>80.739999999999995</v>
+        <v>80.74</v>
       </c>
       <c r="Q65">
         <v>40.79</v>
@@ -4777,12 +6747,12 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>7.3032407407407412E-3</v>
+        <v>0.00730324074074074</v>
       </c>
       <c r="B66" s="1">
-        <v>0.44126157407407413</v>
+        <v>0.441261574074074</v>
       </c>
       <c r="C66">
         <v>140.76</v>
@@ -4797,7 +6767,7 @@
         <v>6.77</v>
       </c>
       <c r="G66">
-        <v>65.540000000000006</v>
+        <v>65.54</v>
       </c>
       <c r="H66">
         <v>222.17</v>
@@ -4845,18 +6815,18 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>7.4189814814814813E-3</v>
+        <v>0.00741898148148148</v>
       </c>
       <c r="B67" s="1">
-        <v>0.44137731481481479</v>
+        <v>0.441377314814815</v>
       </c>
       <c r="C67">
         <v>140.79</v>
       </c>
       <c r="D67">
-        <v>70.489999999999995</v>
+        <v>70.49</v>
       </c>
       <c r="E67">
         <v>9.93</v>
@@ -4871,7 +6841,7 @@
         <v>221.22</v>
       </c>
       <c r="I67">
-        <v>137.11000000000001</v>
+        <v>137.11</v>
       </c>
       <c r="J67">
         <v>113.09</v>
@@ -4913,12 +6883,12 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>7.5347222222222213E-3</v>
+        <v>0.00753472222222222</v>
       </c>
       <c r="B68" s="1">
-        <v>0.44149305555555557</v>
+        <v>0.441493055555556</v>
       </c>
       <c r="C68">
         <v>137.97</v>
@@ -4963,10 +6933,10 @@
         <v>74.11</v>
       </c>
       <c r="Q68">
-        <v>40.369999999999997</v>
+        <v>40.37</v>
       </c>
       <c r="S68" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
@@ -4984,21 +6954,21 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>7.6504629629629631E-3</v>
+        <v>0.00765046296296296</v>
       </c>
       <c r="B69" s="1">
-        <v>0.44160879629629629</v>
+        <v>0.441608796296296</v>
       </c>
       <c r="C69">
         <v>140.72</v>
       </c>
       <c r="D69">
-        <v>70.150000000000006</v>
+        <v>70.15</v>
       </c>
       <c r="E69">
-        <v>9.8699999999999992</v>
+        <v>9.87</v>
       </c>
       <c r="F69">
         <v>6.28</v>
@@ -5031,7 +7001,7 @@
         <v>5.57</v>
       </c>
       <c r="P69">
-        <v>72.489999999999995</v>
+        <v>72.49</v>
       </c>
       <c r="Q69">
         <v>43.59</v>
@@ -5052,12 +7022,12 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>7.7662037037037031E-3</v>
+        <v>0.0077662037037037</v>
       </c>
       <c r="B70" s="1">
-        <v>0.44172453703703707</v>
+        <v>0.441724537037037</v>
       </c>
       <c r="C70">
         <v>143.31</v>
@@ -5099,7 +7069,7 @@
         <v>5.81</v>
       </c>
       <c r="P70">
-        <v>70.319999999999993</v>
+        <v>70.32</v>
       </c>
       <c r="Q70">
         <v>42.7</v>
@@ -5120,12 +7090,12 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>7.8819444444444432E-3</v>
+        <v>0.00788194444444444</v>
       </c>
       <c r="B71" s="1">
-        <v>0.44184027777777773</v>
+        <v>0.441840277777778</v>
       </c>
       <c r="C71">
         <v>146.09</v>
@@ -5188,18 +7158,18 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>7.9976851851851858E-3</v>
+        <v>0.00799768518518519</v>
       </c>
       <c r="B72" s="1">
-        <v>0.44195601851851851</v>
+        <v>0.441956018518519</v>
       </c>
       <c r="C72">
-        <v>152.77000000000001</v>
+        <v>152.77</v>
       </c>
       <c r="D72">
-        <v>74.150000000000006</v>
+        <v>74.15</v>
       </c>
       <c r="E72">
         <v>11.32</v>
@@ -5214,7 +7184,7 @@
         <v>199.84</v>
       </c>
       <c r="I72">
-        <v>136.83000000000001</v>
+        <v>136.83</v>
       </c>
       <c r="J72">
         <v>112.76</v>
@@ -5256,12 +7226,12 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>8.113425925925925E-3</v>
+        <v>0.00811342592592592</v>
       </c>
       <c r="B73" s="1">
-        <v>0.44207175925925929</v>
+        <v>0.442071759259259</v>
       </c>
       <c r="C73">
         <v>155.18</v>
@@ -5324,12 +7294,12 @@
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>8.2291666666666659E-3</v>
+        <v>0.00822916666666667</v>
       </c>
       <c r="B74" s="1">
-        <v>0.44218750000000001</v>
+        <v>0.4421875</v>
       </c>
       <c r="C74">
         <v>157.49</v>
@@ -5392,12 +7362,12 @@
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35">
       <c r="A75" s="1">
-        <v>8.3449074074074085E-3</v>
+        <v>0.00834490740740741</v>
       </c>
       <c r="B75" s="1">
-        <v>0.44230324074074073</v>
+        <v>0.442303240740741</v>
       </c>
       <c r="C75">
         <v>160.13</v>
@@ -5460,12 +7430,12 @@
       <c r="AH75" s="2"/>
       <c r="AI75" s="2"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35">
       <c r="A76" s="1">
-        <v>8.4606481481481494E-3</v>
+        <v>0.00846064814814815</v>
       </c>
       <c r="B76" s="1">
-        <v>0.44241898148148145</v>
+        <v>0.442418981481481</v>
       </c>
       <c r="C76">
         <v>160.04</v>
@@ -5501,13 +7471,13 @@
         <v>412.34</v>
       </c>
       <c r="N76">
-        <v>648.58000000000004</v>
+        <v>648.58</v>
       </c>
       <c r="O76">
         <v>6.86</v>
       </c>
       <c r="P76">
-        <v>78.849999999999994</v>
+        <v>78.85</v>
       </c>
       <c r="Q76">
         <v>55.58</v>
@@ -5528,15 +7498,15 @@
       <c r="AH76" s="2"/>
       <c r="AI76" s="2"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35">
       <c r="A77" s="1">
-        <v>8.5763888888888886E-3</v>
+        <v>0.00857638888888889</v>
       </c>
       <c r="B77" s="1">
-        <v>0.44253472222222223</v>
+        <v>0.442534722222222</v>
       </c>
       <c r="C77">
-        <v>162.69999999999999</v>
+        <v>162.7</v>
       </c>
       <c r="D77">
         <v>78.08</v>
@@ -5596,18 +7566,18 @@
       <c r="AH77" s="2"/>
       <c r="AI77" s="2"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35">
       <c r="A78" s="1">
-        <v>8.6921296296296312E-3</v>
+        <v>0.00869212962962963</v>
       </c>
       <c r="B78" s="1">
-        <v>0.44265046296296301</v>
+        <v>0.442650462962963</v>
       </c>
       <c r="C78">
         <v>162.35</v>
       </c>
       <c r="D78">
-        <v>81.680000000000007</v>
+        <v>81.68</v>
       </c>
       <c r="E78">
         <v>13.26</v>
@@ -5637,7 +7607,7 @@
         <v>379.26</v>
       </c>
       <c r="N78">
-        <v>596.54999999999995</v>
+        <v>596.55</v>
       </c>
       <c r="O78">
         <v>7.26</v>
@@ -5649,11 +7619,11 @@
         <v>64.53</v>
       </c>
       <c r="S78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U78" s="2">
         <f>AVERAGE(C72:C78)</f>
-        <v>158.66571428571427</v>
+        <v>158.665714285714</v>
       </c>
       <c r="V78" s="2">
         <f t="shared" ref="V78:AI78" si="1">AVERAGE(D72:D78)</f>
@@ -5661,39 +7631,39 @@
       </c>
       <c r="W78" s="2">
         <f t="shared" si="1"/>
-        <v>12.081428571428573</v>
+        <v>12.0814285714286</v>
       </c>
       <c r="X78" s="2">
         <f t="shared" si="1"/>
-        <v>7.6828571428571433</v>
+        <v>7.68285714285714</v>
       </c>
       <c r="Y78" s="2">
         <f t="shared" si="1"/>
-        <v>63.177142857142847</v>
+        <v>63.1771428571428</v>
       </c>
       <c r="Z78" s="2">
         <f t="shared" si="1"/>
-        <v>198.62571428571431</v>
+        <v>198.625714285714</v>
       </c>
       <c r="AA78" s="2">
         <f t="shared" si="1"/>
-        <v>136.18714285714287</v>
+        <v>136.187142857143</v>
       </c>
       <c r="AB78" s="2">
         <f t="shared" si="1"/>
-        <v>113.09000000000002</v>
+        <v>113.09</v>
       </c>
       <c r="AC78" s="2">
         <f t="shared" si="1"/>
-        <v>47.862857142857138</v>
+        <v>47.8628571428571</v>
       </c>
       <c r="AD78" s="2">
         <f t="shared" si="1"/>
-        <v>120.47142857142856</v>
+        <v>120.471428571429</v>
       </c>
       <c r="AE78" s="2">
         <f t="shared" si="1"/>
-        <v>415.96000000000004</v>
+        <v>415.96</v>
       </c>
       <c r="AF78" s="2">
         <f t="shared" si="1"/>
@@ -5701,23 +7671,23 @@
       </c>
       <c r="AG78" s="2">
         <f t="shared" si="1"/>
-        <v>6.5985714285714279</v>
+        <v>6.59857142857143</v>
       </c>
       <c r="AH78" s="2">
         <f t="shared" si="1"/>
-        <v>74.421428571428578</v>
+        <v>74.4214285714286</v>
       </c>
       <c r="AI78" s="2">
         <f t="shared" si="1"/>
-        <v>59.47571428571429</v>
-      </c>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+        <v>59.4757142857143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35">
       <c r="A79" s="1">
-        <v>8.8078703703703704E-3</v>
+        <v>0.00880787037037037</v>
       </c>
       <c r="B79" s="1">
-        <v>0.44276620370370368</v>
+        <v>0.442766203703704</v>
       </c>
       <c r="C79">
         <v>165.05</v>
@@ -5747,7 +7717,7 @@
         <v>48</v>
       </c>
       <c r="L79">
-        <v>129.16999999999999</v>
+        <v>129.17</v>
       </c>
       <c r="M79">
         <v>367.84</v>
@@ -5780,12 +7750,12 @@
       <c r="AH79" s="2"/>
       <c r="AI79" s="2"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35">
       <c r="A80" s="1">
-        <v>8.9236111111111113E-3</v>
+        <v>0.00892361111111111</v>
       </c>
       <c r="B80" s="1">
-        <v>0.44288194444444445</v>
+        <v>0.442881944444444</v>
       </c>
       <c r="C80">
         <v>165.76</v>
@@ -5821,13 +7791,13 @@
         <v>380.07</v>
       </c>
       <c r="N80">
-        <v>597.82000000000005</v>
+        <v>597.82</v>
       </c>
       <c r="O80">
         <v>7.52</v>
       </c>
       <c r="P80">
-        <v>80.319999999999993</v>
+        <v>80.32</v>
       </c>
       <c r="Q80">
         <v>56.98</v>
@@ -5848,12 +7818,12 @@
       <c r="AH80" s="2"/>
       <c r="AI80" s="2"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35">
       <c r="A81" s="1">
-        <v>9.0393518518518522E-3</v>
+        <v>0.00903935185185185</v>
       </c>
       <c r="B81" s="1">
-        <v>0.44299768518518517</v>
+        <v>0.442997685185185</v>
       </c>
       <c r="C81">
         <v>168.76</v>
@@ -5889,7 +7859,7 @@
         <v>373.55</v>
       </c>
       <c r="N81">
-        <v>587.57000000000005</v>
+        <v>587.57</v>
       </c>
       <c r="O81">
         <v>7.52</v>
@@ -5901,81 +7871,81 @@
         <v>61.86</v>
       </c>
       <c r="S81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U81" s="2">
         <f>AVERAGE(C72:C81)</f>
-        <v>161.02299999999997</v>
+        <v>161.023</v>
       </c>
       <c r="V81" s="2">
         <f t="shared" ref="V81:AI81" si="2">AVERAGE(D72:D81)</f>
-        <v>77.905000000000001</v>
+        <v>77.905</v>
       </c>
       <c r="W81" s="2">
         <f t="shared" si="2"/>
-        <v>12.556999999999999</v>
+        <v>12.557</v>
       </c>
       <c r="X81" s="2">
         <f t="shared" si="2"/>
-        <v>7.9850000000000012</v>
+        <v>7.985</v>
       </c>
       <c r="Y81" s="2">
         <f t="shared" si="2"/>
-        <v>63.785999999999987</v>
+        <v>63.786</v>
       </c>
       <c r="Z81" s="2">
         <f t="shared" si="2"/>
-        <v>197.38800000000001</v>
+        <v>197.388</v>
       </c>
       <c r="AA81" s="2">
         <f t="shared" si="2"/>
-        <v>141.56900000000002</v>
+        <v>141.569</v>
       </c>
       <c r="AB81" s="2">
         <f t="shared" si="2"/>
-        <v>114.28400000000002</v>
+        <v>114.284</v>
       </c>
       <c r="AC81" s="2">
         <f t="shared" si="2"/>
-        <v>47.792999999999992</v>
+        <v>47.793</v>
       </c>
       <c r="AD81" s="2">
         <f t="shared" si="2"/>
-        <v>122.10299999999998</v>
+        <v>122.103</v>
       </c>
       <c r="AE81" s="2">
         <f t="shared" si="2"/>
-        <v>403.3180000000001</v>
+        <v>403.318</v>
       </c>
       <c r="AF81" s="2">
         <f t="shared" si="2"/>
-        <v>634.39499999999998</v>
+        <v>634.395</v>
       </c>
       <c r="AG81" s="2">
         <f t="shared" si="2"/>
-        <v>6.9009999999999989</v>
+        <v>6.901</v>
       </c>
       <c r="AH81" s="2">
         <f t="shared" si="2"/>
-        <v>75.941999999999993</v>
+        <v>75.942</v>
       </c>
       <c r="AI81" s="2">
         <f t="shared" si="2"/>
-        <v>59.347999999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+        <v>59.348</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35">
       <c r="A82" s="1">
-        <v>9.1550925925925931E-3</v>
+        <v>0.00915509259259259</v>
       </c>
       <c r="B82" s="1">
-        <v>0.44311342592592595</v>
+        <v>0.443113425925926</v>
       </c>
       <c r="C82">
         <v>166.88</v>
       </c>
       <c r="D82">
-        <v>81.599999999999994</v>
+        <v>81.6</v>
       </c>
       <c r="E82">
         <v>13.62</v>
@@ -6014,7 +7984,7 @@
         <v>81.63</v>
       </c>
       <c r="Q82">
-        <v>71.849999999999994</v>
+        <v>71.85</v>
       </c>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
@@ -6032,12 +8002,12 @@
       <c r="AH82" s="2"/>
       <c r="AI82" s="2"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35">
       <c r="A83" s="1">
-        <v>9.2708333333333341E-3</v>
+        <v>0.00927083333333333</v>
       </c>
       <c r="B83" s="1">
-        <v>0.44322916666666662</v>
+        <v>0.443229166666667</v>
       </c>
       <c r="C83">
         <v>169.98</v>
@@ -6052,7 +8022,7 @@
         <v>8.82</v>
       </c>
       <c r="G83">
-        <v>65.760000000000005</v>
+        <v>65.76</v>
       </c>
       <c r="H83">
         <v>190.21</v>
@@ -6073,13 +8043,13 @@
         <v>367.58</v>
       </c>
       <c r="N83">
-        <v>578.19000000000005</v>
+        <v>578.19</v>
       </c>
       <c r="O83">
         <v>7.7</v>
       </c>
       <c r="P83">
-        <v>75.040000000000006</v>
+        <v>75.04</v>
       </c>
       <c r="Q83">
         <v>61.43</v>
@@ -6100,18 +8070,18 @@
       <c r="AH83" s="2"/>
       <c r="AI83" s="2"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35">
       <c r="A84" s="1">
-        <v>9.386574074074075E-3</v>
+        <v>0.00938657407407407</v>
       </c>
       <c r="B84" s="1">
-        <v>0.4433449074074074</v>
+        <v>0.443344907407407</v>
       </c>
       <c r="C84">
         <v>170.13</v>
       </c>
       <c r="D84">
-        <v>81.099999999999994</v>
+        <v>81.1</v>
       </c>
       <c r="E84">
         <v>13.8</v>
@@ -6120,7 +8090,7 @@
         <v>8.77</v>
       </c>
       <c r="G84">
-        <v>66.150000000000006</v>
+        <v>66.15</v>
       </c>
       <c r="H84">
         <v>185</v>
@@ -6141,7 +8111,7 @@
         <v>368.31</v>
       </c>
       <c r="N84">
-        <v>579.33000000000004</v>
+        <v>579.33</v>
       </c>
       <c r="O84">
         <v>7.64</v>
@@ -6153,78 +8123,78 @@
         <v>52.8</v>
       </c>
       <c r="S84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U84" s="2">
         <f>AVERAGE(C72:C84)</f>
-        <v>162.8630769230769</v>
+        <v>162.863076923077</v>
       </c>
       <c r="V84" s="2">
         <f t="shared" ref="V84:AI84" si="3">AVERAGE(D72:D84)</f>
-        <v>78.717692307692317</v>
+        <v>78.7176923076923</v>
       </c>
       <c r="W84" s="2">
         <f t="shared" si="3"/>
-        <v>12.835384615384616</v>
+        <v>12.8353846153846</v>
       </c>
       <c r="X84" s="2">
         <f t="shared" si="3"/>
-        <v>8.1615384615384627</v>
+        <v>8.16153846153846</v>
       </c>
       <c r="Y84" s="2">
         <f t="shared" si="3"/>
-        <v>64.296923076923065</v>
+        <v>64.2969230769231</v>
       </c>
       <c r="Z84" s="2">
         <f t="shared" si="3"/>
-        <v>195.40000000000003</v>
+        <v>195.4</v>
       </c>
       <c r="AA84" s="2">
         <f t="shared" si="3"/>
-        <v>146.22846153846154</v>
+        <v>146.228461538462</v>
       </c>
       <c r="AB84" s="2">
         <f t="shared" si="3"/>
-        <v>115.32769230769233</v>
+        <v>115.327692307692</v>
       </c>
       <c r="AC84" s="2">
         <f t="shared" si="3"/>
-        <v>47.52538461538461</v>
+        <v>47.5253846153846</v>
       </c>
       <c r="AD84" s="2">
         <f t="shared" si="3"/>
-        <v>122.39923076923074</v>
+        <v>122.399230769231</v>
       </c>
       <c r="AE84" s="2">
         <f t="shared" si="3"/>
-        <v>396.29692307692318</v>
+        <v>396.296923076923</v>
       </c>
       <c r="AF84" s="2">
         <f t="shared" si="3"/>
-        <v>623.3523076923077</v>
+        <v>623.352307692308</v>
       </c>
       <c r="AG84" s="2">
         <f t="shared" si="3"/>
-        <v>7.0730769230769219</v>
+        <v>7.07307692307692</v>
       </c>
       <c r="AH84" s="2">
         <f t="shared" si="3"/>
-        <v>76.117692307692309</v>
+        <v>76.1176923076923</v>
       </c>
       <c r="AI84" s="2">
         <f t="shared" si="3"/>
-        <v>59.966153846153844</v>
-      </c>
-    </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+        <v>59.9661538461538</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="1">
-        <v>9.5023148148148159E-3</v>
+        <v>0.00950231481481482</v>
       </c>
       <c r="B85" s="1">
-        <v>0.44346064814814817</v>
+        <v>0.443460648148148</v>
       </c>
       <c r="C85">
-        <v>161.63999999999999</v>
+        <v>161.64</v>
       </c>
       <c r="D85">
         <v>81.86</v>
@@ -6239,7 +8209,7 @@
         <v>68.59</v>
       </c>
       <c r="H85">
-        <v>274.22000000000003</v>
+        <v>274.22</v>
       </c>
       <c r="I85">
         <v>188.57</v>
@@ -6269,15 +8239,15 @@
         <v>31.48</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86" s="1">
-        <v>9.618055555555555E-3</v>
+        <v>0.00961805555555556</v>
       </c>
       <c r="B86" s="1">
-        <v>0.4435763888888889</v>
+        <v>0.443576388888889</v>
       </c>
       <c r="C86">
-        <v>155.77000000000001</v>
+        <v>155.77</v>
       </c>
       <c r="D86">
         <v>82.36</v>
@@ -6289,7 +8259,7 @@
         <v>8.15</v>
       </c>
       <c r="G86">
-        <v>68.099999999999994</v>
+        <v>68.1</v>
       </c>
       <c r="H86">
         <v>249.69</v>
@@ -6310,7 +8280,7 @@
         <v>405.1</v>
       </c>
       <c r="N86">
-        <v>637.19000000000005</v>
+        <v>637.19</v>
       </c>
       <c r="O86">
         <v>7.27</v>
@@ -6322,15 +8292,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87" s="1">
-        <v>9.7337962962962977E-3</v>
+        <v>0.0097337962962963</v>
       </c>
       <c r="B87" s="1">
-        <v>0.44369212962962962</v>
+        <v>0.44369212962963</v>
       </c>
       <c r="C87">
-        <v>152.66999999999999</v>
+        <v>152.67</v>
       </c>
       <c r="D87">
         <v>84.45</v>
@@ -6339,13 +8309,13 @@
         <v>12.89</v>
       </c>
       <c r="F87">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="G87">
         <v>68.67</v>
       </c>
       <c r="H87">
-        <v>274.39999999999998</v>
+        <v>274.4</v>
       </c>
       <c r="I87">
         <v>189.42</v>
@@ -6363,7 +8333,7 @@
         <v>413.92</v>
       </c>
       <c r="N87">
-        <v>651.07000000000005</v>
+        <v>651.07</v>
       </c>
       <c r="O87">
         <v>7.51</v>
@@ -6375,15 +8345,15 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17">
       <c r="A88" s="1">
-        <v>9.8495370370370369E-3</v>
+        <v>0.00984953703703704</v>
       </c>
       <c r="B88" s="1">
-        <v>0.44380787037037034</v>
+        <v>0.44380787037037</v>
       </c>
       <c r="C88">
-        <v>144.77000000000001</v>
+        <v>144.77</v>
       </c>
       <c r="D88">
         <v>80.69</v>
@@ -6395,7 +8365,7 @@
         <v>7.43</v>
       </c>
       <c r="G88">
-        <v>68.069999999999993</v>
+        <v>68.07</v>
       </c>
       <c r="H88">
         <v>333.5</v>
@@ -6425,39 +8395,49 @@
         <v>86.03</v>
       </c>
       <c r="Q88">
-        <v>35.090000000000003</v>
-      </c>
-    </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+        <v>35.09</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X21 2200 bosquet replay.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X21 2200 bosquet replay.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\25Sept2013_Xining_Physioflow_X17X21\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E86928-3DD3-41A5-9ACD-408D339BCEC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -159,14 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,351 +184,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -528,322 +206,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -855,7 +248,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -881,6 +273,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -905,263 +298,260 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$88</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="83"/>
-                <c:pt idx="0" c:formatCode="h:mm:ss">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm:ss">
-                  <c:v>0.000474537037037037</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm:ss">
-                  <c:v>0.000590277777777778</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm:ss">
-                  <c:v>0.000706018518518518</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm:ss">
-                  <c:v>0.000821759259259259</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm:ss">
-                  <c:v>0.0009375</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm:ss">
-                  <c:v>0.00105324074074074</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm:ss">
-                  <c:v>0.00116898148148148</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="h:mm:ss">
-                  <c:v>0.00128472222222222</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="h:mm:ss">
-                  <c:v>0.00140046296296296</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="h:mm:ss">
-                  <c:v>0.0015162037037037</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="h:mm:ss">
-                  <c:v>0.00163194444444444</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="h:mm:ss">
-                  <c:v>0.00174768518518519</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="h:mm:ss">
-                  <c:v>0.00186342592592593</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="h:mm:ss">
-                  <c:v>0.00197916666666667</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="h:mm:ss">
-                  <c:v>0.00209490740740741</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="h:mm:ss">
-                  <c:v>0.00221064814814815</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="h:mm:ss">
-                  <c:v>0.00232638888888889</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="h:mm:ss">
-                  <c:v>0.00244212962962963</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="h:mm:ss">
-                  <c:v>0.00255787037037037</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="h:mm:ss">
-                  <c:v>0.00267361111111111</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="h:mm:ss">
-                  <c:v>0.00278935185185185</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="h:mm:ss">
-                  <c:v>0.00290509259259259</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="h:mm:ss">
-                  <c:v>0.00302083333333333</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="h:mm:ss">
-                  <c:v>0.00313657407407407</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="h:mm:ss">
-                  <c:v>0.00325231481481482</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="h:mm:ss">
-                  <c:v>0.00336805555555556</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="h:mm:ss">
-                  <c:v>0.0034837962962963</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="h:mm:ss">
-                  <c:v>0.00359953703703704</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="h:mm:ss">
-                  <c:v>0.00371527777777778</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="h:mm:ss">
-                  <c:v>0.00383101851851852</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="h:mm:ss">
-                  <c:v>0.00394675925925926</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="h:mm:ss">
-                  <c:v>0.0040625</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="h:mm:ss">
-                  <c:v>0.00417824074074074</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="h:mm:ss">
-                  <c:v>0.00429398148148148</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="h:mm:ss">
-                  <c:v>0.00440972222222222</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="h:mm:ss">
-                  <c:v>0.00452546296296296</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="h:mm:ss">
-                  <c:v>0.0046412037037037</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="h:mm:ss">
-                  <c:v>0.00475694444444444</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="h:mm:ss">
-                  <c:v>0.00487268518518519</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="h:mm:ss">
-                  <c:v>0.00498842592592593</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="h:mm:ss">
-                  <c:v>0.00510416666666667</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="h:mm:ss">
-                  <c:v>0.00521990740740741</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="h:mm:ss">
-                  <c:v>0.00533564814814815</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="h:mm:ss">
-                  <c:v>0.00545138888888889</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="h:mm:ss">
-                  <c:v>0.00556712962962963</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="h:mm:ss">
-                  <c:v>0.00568287037037037</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="h:mm:ss">
-                  <c:v>0.00579861111111111</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="h:mm:ss">
-                  <c:v>0.00591435185185185</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="h:mm:ss">
-                  <c:v>0.00603009259259259</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="h:mm:ss">
-                  <c:v>0.00614583333333333</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="h:mm:ss">
-                  <c:v>0.00626157407407407</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="h:mm:ss">
-                  <c:v>0.00637731481481481</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="h:mm:ss">
-                  <c:v>0.00649305555555555</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="h:mm:ss">
-                  <c:v>0.0066087962962963</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="h:mm:ss">
-                  <c:v>0.00672453703703704</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="h:mm:ss">
-                  <c:v>0.00684027777777778</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="h:mm:ss">
-                  <c:v>0.00695601851851852</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="h:mm:ss">
-                  <c:v>0.00707175925925926</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="h:mm:ss">
-                  <c:v>0.0071875</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="h:mm:ss">
-                  <c:v>0.00730324074074074</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="h:mm:ss">
-                  <c:v>0.00741898148148148</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="h:mm:ss">
-                  <c:v>0.00753472222222222</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="h:mm:ss">
-                  <c:v>0.00765046296296296</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="h:mm:ss">
-                  <c:v>0.0077662037037037</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="h:mm:ss">
-                  <c:v>0.00788194444444444</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="h:mm:ss">
-                  <c:v>0.00799768518518519</c:v>
-                </c:pt>
-                <c:pt idx="67" c:formatCode="h:mm:ss">
-                  <c:v>0.00811342592592592</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="h:mm:ss">
-                  <c:v>0.00822916666666667</c:v>
-                </c:pt>
-                <c:pt idx="69" c:formatCode="h:mm:ss">
-                  <c:v>0.00834490740740741</c:v>
-                </c:pt>
-                <c:pt idx="70" c:formatCode="h:mm:ss">
-                  <c:v>0.00846064814814815</c:v>
-                </c:pt>
-                <c:pt idx="71" c:formatCode="h:mm:ss">
-                  <c:v>0.00857638888888889</c:v>
-                </c:pt>
-                <c:pt idx="72" c:formatCode="h:mm:ss">
-                  <c:v>0.00869212962962963</c:v>
-                </c:pt>
-                <c:pt idx="73" c:formatCode="h:mm:ss">
-                  <c:v>0.00880787037037037</c:v>
-                </c:pt>
-                <c:pt idx="74" c:formatCode="h:mm:ss">
-                  <c:v>0.00892361111111111</c:v>
-                </c:pt>
-                <c:pt idx="75" c:formatCode="h:mm:ss">
-                  <c:v>0.00903935185185185</c:v>
-                </c:pt>
-                <c:pt idx="76" c:formatCode="h:mm:ss">
-                  <c:v>0.00915509259259259</c:v>
-                </c:pt>
-                <c:pt idx="77" c:formatCode="h:mm:ss">
-                  <c:v>0.00927083333333333</c:v>
-                </c:pt>
-                <c:pt idx="78" c:formatCode="h:mm:ss">
-                  <c:v>0.00938657407407407</c:v>
-                </c:pt>
-                <c:pt idx="79" c:formatCode="h:mm:ss">
-                  <c:v>0.00950231481481482</c:v>
-                </c:pt>
-                <c:pt idx="80" c:formatCode="h:mm:ss">
-                  <c:v>0.00961805555555556</c:v>
-                </c:pt>
-                <c:pt idx="81" c:formatCode="h:mm:ss">
-                  <c:v>0.0097337962962963</c:v>
-                </c:pt>
-                <c:pt idx="82" c:formatCode="h:mm:ss">
-                  <c:v>0.00984953703703704</c:v>
+                <c:pt idx="1">
+                  <c:v>4.7453703703703698E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.90277777777778E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0601851851851804E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2175925925925895E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3749999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05324074074074E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.16898148148148E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2847222222222201E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4004629629629599E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5162037037037E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.63194444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.74768518518519E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.86342592592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9791666666666699E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0949074074074099E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.21064814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.32638888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.44212962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5578703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6736111111111101E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7893518518518502E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9050925925925902E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0208333333333298E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1365740740740698E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2523148148148199E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3680555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4837962962962999E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.59953703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.71527777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.8310185185185201E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9467592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.1782407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.2939814814814802E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.4097222222222203E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5254629629629603E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.6412037037037003E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.7569444444444404E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.87268518518519E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.98842592592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.10416666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.2199074074074101E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.3356481481481501E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4513888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.5671296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.6828703703703702E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7986111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.9143518518518503E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.0300925925925904E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.1458333333333304E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.2615740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.3773148148148096E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.4930555555555497E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.6087962962963001E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.7245370370370402E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.8402777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.9560185185185202E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.0717592592592603E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.1875000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.3032407407407404E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.4189814814814804E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.5347222222222204E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.6504629629629596E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.7662037037036996E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.8819444444444397E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.9976851851851893E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.1134259259259198E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.2291666666666693E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.3449074074074103E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.4606481481481494E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.5763888888888903E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.6921296296296295E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.8078703703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.9236111111111096E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.0393518518518505E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.1550925925925897E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.2708333333333306E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.3865740740740698E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.5023148148148193E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.6180555555555602E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.7337962962962994E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.8495370370370403E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,7 +572,7 @@
                   <c:v>5.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.42</c:v>
@@ -1230,7 +620,7 @@
                   <c:v>5.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.64</c:v>
+                  <c:v>4.6399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4.67</c:v>
@@ -1263,10 +653,10 @@
                   <c:v>5.07</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.81</c:v>
+                  <c:v>4.8099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.11</c:v>
+                  <c:v>5.1100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>4.97</c:v>
@@ -1275,13 +665,13 @@
                   <c:v>4.78</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.85</c:v>
+                  <c:v>4.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>4.99</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.1</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>5.34</c:v>
@@ -1311,10 +701,10 @@
                   <c:v>6.95</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.55</c:v>
+                  <c:v>8.5500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.45</c:v>
+                  <c:v>9.4499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>10.16</c:v>
@@ -1335,7 +725,7 @@
                   <c:v>9.75</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.7</c:v>
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>10.44</c:v>
@@ -1362,7 +752,7 @@
                   <c:v>9.81</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.87</c:v>
+                  <c:v>9.8699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>10.39</c:v>
@@ -1425,6 +815,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3763-49C7-8FBC-24E7FCF24ECF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1434,7 +829,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="182744391"/>
         <c:axId val="217835968"/>
@@ -1446,6 +840,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1479,6 +874,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="217835968"/>
@@ -1537,6 +933,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="182744391"/>
@@ -1577,6 +974,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2144,28 +1542,34 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>223520</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>499745</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>474980</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>151130</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2692400" y="139700"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2459,21 +1863,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:A84"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="U77" sqref="U77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2481,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2599,7 +2003,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="21:35">
+    <row r="5" spans="1:35">
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -2627,7 +2031,7 @@
         <v>84.76</v>
       </c>
       <c r="D6">
-        <v>71.93</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="E6">
         <v>6.1</v>
@@ -2660,7 +2064,7 @@
         <v>1747.23</v>
       </c>
       <c r="O6">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="P6">
         <v>102.23</v>
@@ -2686,10 +2090,10 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>0.000474537037037037</v>
+        <v>4.7453703703703698E-4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.43443287037037</v>
+        <v>0.43443287037036998</v>
       </c>
       <c r="C7">
         <v>78.63</v>
@@ -2704,25 +2108,25 @@
         <v>3.58</v>
       </c>
       <c r="G7">
-        <v>65.18</v>
+        <v>65.180000000000007</v>
       </c>
       <c r="H7">
         <v>457.14</v>
       </c>
       <c r="I7">
-        <v>153.58</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="J7">
         <v>118.93</v>
       </c>
       <c r="K7">
-        <v>71.71</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="L7">
         <v>109.8</v>
       </c>
       <c r="M7">
-        <v>1153.64</v>
+        <v>1153.6400000000001</v>
       </c>
       <c r="N7">
         <v>1814.6</v>
@@ -2757,13 +2161,13 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>0.000590277777777778</v>
+        <v>5.90277777777778E-4</v>
       </c>
       <c r="B8" s="1">
-        <v>0.434548611111111</v>
+        <v>0.43454861111111098</v>
       </c>
       <c r="C8">
-        <v>77.15</v>
+        <v>77.150000000000006</v>
       </c>
       <c r="D8">
         <v>71.13</v>
@@ -2825,10 +2229,10 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>0.000706018518518518</v>
+        <v>7.0601851851851804E-4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.434664351851852</v>
+        <v>0.43466435185185198</v>
       </c>
       <c r="C9">
         <v>74.02</v>
@@ -2837,7 +2241,7 @@
         <v>68.88</v>
       </c>
       <c r="E9">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F9">
         <v>3.24</v>
@@ -2855,13 +2259,13 @@
         <v>118</v>
       </c>
       <c r="K9">
-        <v>70.85</v>
+        <v>70.849999999999994</v>
       </c>
       <c r="L9">
         <v>107.11</v>
       </c>
       <c r="M9">
-        <v>1250.11</v>
+        <v>1250.1099999999999</v>
       </c>
       <c r="N9">
         <v>1966.35</v>
@@ -2873,7 +2277,7 @@
         <v>111.15</v>
       </c>
       <c r="Q9">
-        <v>40.45</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -2893,10 +2297,10 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>0.000821759259259259</v>
+        <v>8.2175925925925895E-4</v>
       </c>
       <c r="B10" s="1">
-        <v>0.434780092592593</v>
+        <v>0.43478009259259298</v>
       </c>
       <c r="C10">
         <v>78.25</v>
@@ -2923,13 +2327,13 @@
         <v>118</v>
       </c>
       <c r="K10">
-        <v>70.15</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="L10">
         <v>107.06</v>
       </c>
       <c r="M10">
-        <v>1168.91</v>
+        <v>1168.9100000000001</v>
       </c>
       <c r="N10">
         <v>1838.63</v>
@@ -2941,7 +2345,7 @@
         <v>110.51</v>
       </c>
       <c r="Q10">
-        <v>40.05</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -2961,16 +2365,16 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>0.0009375</v>
+        <v>9.3749999999999997E-4</v>
       </c>
       <c r="B11" s="1">
-        <v>0.434895833333333</v>
+        <v>0.43489583333333298</v>
       </c>
       <c r="C11">
         <v>76.3</v>
       </c>
       <c r="D11">
-        <v>69.96</v>
+        <v>69.959999999999994</v>
       </c>
       <c r="E11">
         <v>5.34</v>
@@ -2997,7 +2401,7 @@
         <v>107.95</v>
       </c>
       <c r="M11">
-        <v>1197.16</v>
+        <v>1197.1600000000001</v>
       </c>
       <c r="N11">
         <v>1883.06</v>
@@ -3029,10 +2433,10 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>0.00105324074074074</v>
+        <v>1.05324074074074E-3</v>
       </c>
       <c r="B12" s="1">
-        <v>0.435011574074074</v>
+        <v>0.43501157407407398</v>
       </c>
       <c r="C12">
         <v>74.89</v>
@@ -3047,7 +2451,7 @@
         <v>3.41</v>
       </c>
       <c r="G12">
-        <v>65.04</v>
+        <v>65.040000000000006</v>
       </c>
       <c r="H12">
         <v>448.92</v>
@@ -3059,7 +2463,7 @@
         <v>118.85</v>
       </c>
       <c r="K12">
-        <v>70.85</v>
+        <v>70.849999999999994</v>
       </c>
       <c r="L12">
         <v>110.02</v>
@@ -3097,16 +2501,16 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>0.00116898148148148</v>
+        <v>1.16898148148148E-3</v>
       </c>
       <c r="B13" s="1">
-        <v>0.435127314814815</v>
+        <v>0.43512731481481498</v>
       </c>
       <c r="C13">
-        <v>77.57</v>
+        <v>77.569999999999993</v>
       </c>
       <c r="D13">
-        <v>71.21</v>
+        <v>71.209999999999994</v>
       </c>
       <c r="E13">
         <v>5.52</v>
@@ -3127,7 +2531,7 @@
         <v>117.15</v>
       </c>
       <c r="K13">
-        <v>69.15</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="L13">
         <v>110.53</v>
@@ -3165,13 +2569,13 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>0.00128472222222222</v>
+        <v>1.2847222222222201E-3</v>
       </c>
       <c r="B14" s="1">
-        <v>0.435243055555556</v>
+        <v>0.43524305555555598</v>
       </c>
       <c r="C14">
-        <v>80.21</v>
+        <v>80.209999999999994</v>
       </c>
       <c r="D14">
         <v>70.69</v>
@@ -3183,7 +2587,7 @@
         <v>3.6</v>
       </c>
       <c r="G14">
-        <v>64.82</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="H14">
         <v>431.08</v>
@@ -3195,13 +2599,13 @@
         <v>118.08</v>
       </c>
       <c r="K14">
-        <v>70.15</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="L14">
         <v>109.05</v>
       </c>
       <c r="M14">
-        <v>1117.34</v>
+        <v>1117.3399999999999</v>
       </c>
       <c r="N14">
         <v>1757.51</v>
@@ -3213,7 +2617,7 @@
         <v>100.94</v>
       </c>
       <c r="Q14">
-        <v>38.45</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -3233,16 +2637,16 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>0.00140046296296296</v>
+        <v>1.4004629629629599E-3</v>
       </c>
       <c r="B15" s="1">
-        <v>0.435358796296296</v>
+        <v>0.43535879629629598</v>
       </c>
       <c r="C15">
         <v>76.69</v>
       </c>
       <c r="D15">
-        <v>71.32</v>
+        <v>71.319999999999993</v>
       </c>
       <c r="E15">
         <v>5.47</v>
@@ -3263,7 +2667,7 @@
         <v>118.85</v>
       </c>
       <c r="K15">
-        <v>71.85</v>
+        <v>71.849999999999994</v>
       </c>
       <c r="L15">
         <v>109.79</v>
@@ -3301,16 +2705,16 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>0.0015162037037037</v>
+        <v>1.5162037037037E-3</v>
       </c>
       <c r="B16" s="1">
-        <v>0.435474537037037</v>
+        <v>0.43547453703703698</v>
       </c>
       <c r="C16">
-        <v>79.57</v>
+        <v>79.569999999999993</v>
       </c>
       <c r="D16">
-        <v>69.32</v>
+        <v>69.319999999999993</v>
       </c>
       <c r="E16">
         <v>5.51</v>
@@ -3319,7 +2723,7 @@
         <v>3.51</v>
       </c>
       <c r="G16">
-        <v>64.18</v>
+        <v>64.180000000000007</v>
       </c>
       <c r="H16">
         <v>443.38</v>
@@ -3369,10 +2773,10 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>0.00163194444444444</v>
+        <v>1.63194444444444E-3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.435590277777778</v>
+        <v>0.43559027777777798</v>
       </c>
       <c r="C17">
         <v>85.24</v>
@@ -3411,7 +2815,7 @@
         <v>1632.74</v>
       </c>
       <c r="O17">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="P17">
         <v>101.41</v>
@@ -3437,10 +2841,10 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>0.00174768518518519</v>
+        <v>1.74768518518519E-3</v>
       </c>
       <c r="B18" s="1">
-        <v>0.435706018518518</v>
+        <v>0.43570601851851798</v>
       </c>
       <c r="C18">
         <v>90.91</v>
@@ -3479,7 +2883,7 @@
         <v>1497.78</v>
       </c>
       <c r="O18">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="P18">
         <v>96.31</v>
@@ -3505,10 +2909,10 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>0.00186342592592593</v>
+        <v>1.86342592592593E-3</v>
       </c>
       <c r="B19" s="1">
-        <v>0.435821759259259</v>
+        <v>0.43582175925925898</v>
       </c>
       <c r="C19">
         <v>88.47</v>
@@ -3529,7 +2933,7 @@
         <v>440.53</v>
       </c>
       <c r="I19">
-        <v>152.95</v>
+        <v>152.94999999999999</v>
       </c>
       <c r="J19">
         <v>119</v>
@@ -3547,7 +2951,7 @@
         <v>1587.62</v>
       </c>
       <c r="O19">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="P19">
         <v>98.59</v>
@@ -3573,22 +2977,22 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>0.00197916666666667</v>
+        <v>1.9791666666666699E-3</v>
       </c>
       <c r="B20" s="1">
-        <v>0.4359375</v>
+        <v>0.43593749999999998</v>
       </c>
       <c r="C20">
         <v>87.09</v>
       </c>
       <c r="D20">
-        <v>73.35</v>
+        <v>73.349999999999994</v>
       </c>
       <c r="E20">
         <v>6.39</v>
       </c>
       <c r="F20">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="G20">
         <v>65.58</v>
@@ -3603,7 +3007,7 @@
         <v>119</v>
       </c>
       <c r="K20">
-        <v>70.07</v>
+        <v>70.069999999999993</v>
       </c>
       <c r="L20">
         <v>111.86</v>
@@ -3641,16 +3045,16 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>0.00209490740740741</v>
+        <v>2.0949074074074099E-3</v>
       </c>
       <c r="B21" s="1">
-        <v>0.436053240740741</v>
+        <v>0.43605324074074098</v>
       </c>
       <c r="C21">
         <v>82.83</v>
       </c>
       <c r="D21">
-        <v>70.07</v>
+        <v>70.069999999999993</v>
       </c>
       <c r="E21">
         <v>5.81</v>
@@ -3671,13 +3075,13 @@
         <v>119</v>
       </c>
       <c r="K21">
-        <v>70.93</v>
+        <v>70.930000000000007</v>
       </c>
       <c r="L21">
         <v>107.39</v>
       </c>
       <c r="M21">
-        <v>1105.65</v>
+        <v>1105.6500000000001</v>
       </c>
       <c r="N21">
         <v>1739.12</v>
@@ -3709,16 +3113,16 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>0.00221064814814815</v>
+        <v>2.21064814814815E-3</v>
       </c>
       <c r="B22" s="1">
-        <v>0.436168981481481</v>
+        <v>0.43616898148148098</v>
       </c>
       <c r="C22">
         <v>83.07</v>
       </c>
       <c r="D22">
-        <v>69.68</v>
+        <v>69.680000000000007</v>
       </c>
       <c r="E22">
         <v>5.79</v>
@@ -3733,19 +3137,19 @@
         <v>438</v>
       </c>
       <c r="I22">
-        <v>153.98</v>
+        <v>153.97999999999999</v>
       </c>
       <c r="J22">
         <v>119</v>
       </c>
       <c r="K22">
-        <v>70.07</v>
+        <v>70.069999999999993</v>
       </c>
       <c r="L22">
         <v>106.85</v>
       </c>
       <c r="M22">
-        <v>1100.66</v>
+        <v>1100.6600000000001</v>
       </c>
       <c r="N22">
         <v>1731.28</v>
@@ -3777,10 +3181,10 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>0.00232638888888889</v>
+        <v>2.32638888888889E-3</v>
       </c>
       <c r="B23" s="1">
-        <v>0.436284722222222</v>
+        <v>0.43628472222222198</v>
       </c>
       <c r="C23">
         <v>76.05</v>
@@ -3819,7 +3223,7 @@
         <v>1771.95</v>
       </c>
       <c r="O23">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="P23">
         <v>111.41</v>
@@ -3845,16 +3249,16 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>0.00244212962962963</v>
+        <v>2.44212962962963E-3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.436400462962963</v>
+        <v>0.43640046296296298</v>
       </c>
       <c r="C24">
         <v>68.88</v>
       </c>
       <c r="D24">
-        <v>75.15</v>
+        <v>75.150000000000006</v>
       </c>
       <c r="E24">
         <v>5.18</v>
@@ -3869,7 +3273,7 @@
         <v>471.64</v>
       </c>
       <c r="I24">
-        <v>140.61</v>
+        <v>140.61000000000001</v>
       </c>
       <c r="J24">
         <v>116.91</v>
@@ -3881,7 +3285,7 @@
         <v>117.89</v>
       </c>
       <c r="M24">
-        <v>1238.87</v>
+        <v>1238.8699999999999</v>
       </c>
       <c r="N24">
         <v>1948.67</v>
@@ -3913,10 +3317,10 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>0.00255787037037037</v>
+        <v>2.5578703703703701E-3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.436516203703704</v>
+        <v>0.43651620370370398</v>
       </c>
       <c r="C25">
         <v>69.69</v>
@@ -3925,7 +3329,7 @@
         <v>66.56</v>
       </c>
       <c r="E25">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="F25">
         <v>2.95</v>
@@ -3981,13 +3385,13 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>0.00267361111111111</v>
+        <v>2.6736111111111101E-3</v>
       </c>
       <c r="B26" s="1">
-        <v>0.436631944444444</v>
+        <v>0.43663194444444398</v>
       </c>
       <c r="C26">
-        <v>70.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="D26">
         <v>66.75</v>
@@ -4005,7 +3409,7 @@
         <v>457.09</v>
       </c>
       <c r="I26">
-        <v>138.83</v>
+        <v>138.83000000000001</v>
       </c>
       <c r="J26">
         <v>116.91</v>
@@ -4049,13 +3453,13 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>0.00278935185185185</v>
+        <v>2.7893518518518502E-3</v>
       </c>
       <c r="B27" s="1">
-        <v>0.436747685185185</v>
+        <v>0.43674768518518498</v>
       </c>
       <c r="C27">
-        <v>71.9</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="D27">
         <v>70.13</v>
@@ -4073,7 +3477,7 @@
         <v>433.33</v>
       </c>
       <c r="I27">
-        <v>138.48</v>
+        <v>138.47999999999999</v>
       </c>
       <c r="J27">
         <v>116</v>
@@ -4085,7 +3489,7 @@
         <v>110.44</v>
       </c>
       <c r="M27">
-        <v>1243.11</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="N27">
         <v>1955.34</v>
@@ -4097,7 +3501,7 @@
         <v>104.6</v>
       </c>
       <c r="Q27">
-        <v>39.91</v>
+        <v>39.909999999999997</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -4117,16 +3521,16 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>0.00290509259259259</v>
+        <v>2.9050925925925902E-3</v>
       </c>
       <c r="B28" s="1">
-        <v>0.436863425925926</v>
+        <v>0.43686342592592597</v>
       </c>
       <c r="C28">
         <v>74.13</v>
       </c>
       <c r="D28">
-        <v>72.82</v>
+        <v>72.819999999999993</v>
       </c>
       <c r="E28">
         <v>5.4</v>
@@ -4185,10 +3589,10 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>0.00302083333333333</v>
+        <v>3.0208333333333298E-3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.436979166666667</v>
+        <v>0.43697916666666697</v>
       </c>
       <c r="C29">
         <v>75.16</v>
@@ -4221,7 +3625,7 @@
         <v>111.16</v>
       </c>
       <c r="M29">
-        <v>1205.89</v>
+        <v>1205.8900000000001</v>
       </c>
       <c r="N29">
         <v>1896.8</v>
@@ -4253,10 +3657,10 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>0.00313657407407407</v>
+        <v>3.1365740740740698E-3</v>
       </c>
       <c r="B30" s="1">
-        <v>0.437094907407407</v>
+        <v>0.43709490740740697</v>
       </c>
       <c r="C30">
         <v>72.98</v>
@@ -4321,16 +3725,16 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>0.00325231481481482</v>
+        <v>3.2523148148148199E-3</v>
       </c>
       <c r="B31" s="1">
-        <v>0.437210648148148</v>
+        <v>0.43721064814814797</v>
       </c>
       <c r="C31">
         <v>74.36</v>
       </c>
       <c r="D31">
-        <v>64.21</v>
+        <v>64.209999999999994</v>
       </c>
       <c r="E31">
         <v>4.78</v>
@@ -4345,13 +3749,13 @@
         <v>456.92</v>
       </c>
       <c r="I31">
-        <v>134.2</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="J31">
         <v>115.92</v>
       </c>
       <c r="K31">
-        <v>70.85</v>
+        <v>70.849999999999994</v>
       </c>
       <c r="L31">
         <v>101.91</v>
@@ -4389,10 +3793,10 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>0.00336805555555556</v>
+        <v>3.3680555555555599E-3</v>
       </c>
       <c r="B32" s="1">
-        <v>0.437326388888889</v>
+        <v>0.43732638888888897</v>
       </c>
       <c r="C32">
         <v>75.48</v>
@@ -4413,7 +3817,7 @@
         <v>433.67</v>
       </c>
       <c r="I32">
-        <v>130.7</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="J32">
         <v>115</v>
@@ -4457,10 +3861,10 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>0.0034837962962963</v>
+        <v>3.4837962962962999E-3</v>
       </c>
       <c r="B33" s="1">
-        <v>0.43744212962963</v>
+        <v>0.43744212962963003</v>
       </c>
       <c r="C33">
         <v>77.58</v>
@@ -4505,7 +3909,7 @@
         <v>97.52</v>
       </c>
       <c r="Q33">
-        <v>38.52</v>
+        <v>38.520000000000003</v>
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -4525,16 +3929,16 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>0.00359953703703704</v>
+        <v>3.59953703703704E-3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.43755787037037</v>
+        <v>0.43755787037036997</v>
       </c>
       <c r="C34">
-        <v>79.35</v>
+        <v>79.349999999999994</v>
       </c>
       <c r="D34">
-        <v>66.65</v>
+        <v>66.650000000000006</v>
       </c>
       <c r="E34">
         <v>5.29</v>
@@ -4593,16 +3997,16 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>0.00371527777777778</v>
+        <v>3.71527777777778E-3</v>
       </c>
       <c r="B35" s="1">
-        <v>0.437673611111111</v>
+        <v>0.43767361111111103</v>
       </c>
       <c r="C35">
         <v>76.62</v>
       </c>
       <c r="D35">
-        <v>66.1</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="E35">
         <v>5.07</v>
@@ -4641,7 +4045,7 @@
         <v>92.31</v>
       </c>
       <c r="Q35">
-        <v>38.38</v>
+        <v>38.380000000000003</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -4661,10 +4065,10 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>0.00383101851851852</v>
+        <v>3.8310185185185201E-3</v>
       </c>
       <c r="B36" s="1">
-        <v>0.437789351851852</v>
+        <v>0.43778935185185203</v>
       </c>
       <c r="C36">
         <v>76.86</v>
@@ -4673,7 +4077,7 @@
         <v>62.65</v>
       </c>
       <c r="E36">
-        <v>4.81</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="F36">
         <v>3.06</v>
@@ -4729,19 +4133,19 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>0.00394675925925926</v>
+        <v>3.9467592592592601E-3</v>
       </c>
       <c r="B37" s="1">
-        <v>0.437905092592593</v>
+        <v>0.43790509259259303</v>
       </c>
       <c r="C37">
         <v>79.12</v>
       </c>
       <c r="D37">
-        <v>64.54</v>
+        <v>64.540000000000006</v>
       </c>
       <c r="E37">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="F37">
         <v>3.25</v>
@@ -4753,7 +4157,7 @@
         <v>431.69</v>
       </c>
       <c r="I37">
-        <v>130.14</v>
+        <v>130.13999999999999</v>
       </c>
       <c r="J37">
         <v>114</v>
@@ -4797,13 +4201,13 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>0.0040625</v>
+        <v>4.0625000000000001E-3</v>
       </c>
       <c r="B38" s="1">
-        <v>0.438020833333333</v>
+        <v>0.43802083333333303</v>
       </c>
       <c r="C38">
-        <v>76.35</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="D38">
         <v>65.11</v>
@@ -4821,7 +4225,7 @@
         <v>442.15</v>
       </c>
       <c r="I38">
-        <v>128.86</v>
+        <v>128.86000000000001</v>
       </c>
       <c r="J38">
         <v>114</v>
@@ -4865,16 +4269,16 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>0.00417824074074074</v>
+        <v>4.1782407407407402E-3</v>
       </c>
       <c r="B39" s="1">
-        <v>0.438136574074074</v>
+        <v>0.43813657407407403</v>
       </c>
       <c r="C39">
         <v>74.2</v>
       </c>
       <c r="D39">
-        <v>64.43</v>
+        <v>64.430000000000007</v>
       </c>
       <c r="E39">
         <v>4.78</v>
@@ -4904,7 +4308,7 @@
         <v>1314.73</v>
       </c>
       <c r="N39">
-        <v>2067.99</v>
+        <v>2067.9899999999998</v>
       </c>
       <c r="O39">
         <v>3.29</v>
@@ -4933,10 +4337,10 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>0.00429398148148148</v>
+        <v>4.2939814814814802E-3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.438252314814815</v>
+        <v>0.43825231481481502</v>
       </c>
       <c r="C40">
         <v>76.53</v>
@@ -4945,7 +4349,7 @@
         <v>63.35</v>
       </c>
       <c r="E40">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="F40">
         <v>3.08</v>
@@ -5001,16 +4405,16 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>0.00440972222222222</v>
+        <v>4.4097222222222203E-3</v>
       </c>
       <c r="B41" s="1">
-        <v>0.438368055555556</v>
+        <v>0.43836805555555602</v>
       </c>
       <c r="C41">
         <v>76.45</v>
       </c>
       <c r="D41">
-        <v>65.29</v>
+        <v>65.290000000000006</v>
       </c>
       <c r="E41">
         <v>4.99</v>
@@ -5025,13 +4429,13 @@
         <v>448.31</v>
       </c>
       <c r="I41">
-        <v>129.52</v>
+        <v>129.52000000000001</v>
       </c>
       <c r="J41">
         <v>114.85</v>
       </c>
       <c r="K41">
-        <v>69.85</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="L41">
         <v>104.55</v>
@@ -5069,19 +4473,19 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>0.00452546296296296</v>
+        <v>4.5254629629629603E-3</v>
       </c>
       <c r="B42" s="1">
-        <v>0.438483796296296</v>
+        <v>0.43848379629629602</v>
       </c>
       <c r="C42">
-        <v>76.24</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="D42">
         <v>66.86</v>
       </c>
       <c r="E42">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F42">
         <v>3.24</v>
@@ -5137,10 +4541,10 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>0.0046412037037037</v>
+        <v>4.6412037037037003E-3</v>
       </c>
       <c r="B43" s="1">
-        <v>0.438599537037037</v>
+        <v>0.43859953703703702</v>
       </c>
       <c r="C43">
         <v>79.87</v>
@@ -5173,7 +4577,7 @@
         <v>107.82</v>
       </c>
       <c r="M43">
-        <v>1155.88</v>
+        <v>1155.8800000000001</v>
       </c>
       <c r="N43">
         <v>1818.13</v>
@@ -5205,16 +4609,16 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>0.00475694444444444</v>
+        <v>4.7569444444444404E-3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.438715277777778</v>
+        <v>0.43871527777777802</v>
       </c>
       <c r="C44">
         <v>84.77</v>
       </c>
       <c r="D44">
-        <v>68.49</v>
+        <v>68.489999999999995</v>
       </c>
       <c r="E44">
         <v>5.81</v>
@@ -5235,7 +4639,7 @@
         <v>115.29</v>
       </c>
       <c r="K44">
-        <v>69.29</v>
+        <v>69.290000000000006</v>
       </c>
       <c r="L44">
         <v>108.67</v>
@@ -5273,16 +4677,16 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>0.00487268518518519</v>
+        <v>4.87268518518519E-3</v>
       </c>
       <c r="B45" s="1">
-        <v>0.438831018518519</v>
+        <v>0.43883101851851902</v>
       </c>
       <c r="C45">
         <v>80.88</v>
       </c>
       <c r="D45">
-        <v>69.21</v>
+        <v>69.209999999999994</v>
       </c>
       <c r="E45">
         <v>5.6</v>
@@ -5309,7 +4713,7 @@
         <v>108.68</v>
       </c>
       <c r="M45">
-        <v>1138.65</v>
+        <v>1138.6500000000001</v>
       </c>
       <c r="N45">
         <v>1791.03</v>
@@ -5325,15 +4729,15 @@
       </c>
       <c r="U45" s="2">
         <f>AVERAGE(C6:C45)</f>
-        <v>77.98</v>
+        <v>77.97999999999999</v>
       </c>
       <c r="V45" s="2">
         <f t="shared" ref="V45:AI45" si="0">AVERAGE(D6:D45)</f>
-        <v>68.73125</v>
+        <v>68.731250000000003</v>
       </c>
       <c r="W45" s="2">
         <f t="shared" si="0"/>
-        <v>5.3655</v>
+        <v>5.365499999999999</v>
       </c>
       <c r="X45" s="2">
         <f t="shared" si="0"/>
@@ -5341,15 +4745,15 @@
       </c>
       <c r="Y45" s="2">
         <f t="shared" si="0"/>
-        <v>63.754</v>
+        <v>63.753999999999998</v>
       </c>
       <c r="Z45" s="2">
         <f t="shared" si="0"/>
-        <v>442.835</v>
+        <v>442.83499999999992</v>
       </c>
       <c r="AA45" s="2">
         <f t="shared" si="0"/>
-        <v>140.99575</v>
+        <v>140.99574999999999</v>
       </c>
       <c r="AB45" s="2">
         <f t="shared" si="0"/>
@@ -5365,15 +4769,15 @@
       </c>
       <c r="AE45" s="2">
         <f t="shared" si="0"/>
-        <v>1187.7805</v>
+        <v>1187.7805000000001</v>
       </c>
       <c r="AF45" s="2">
         <f t="shared" si="0"/>
-        <v>1868.30975</v>
+        <v>1868.3097499999999</v>
       </c>
       <c r="AG45" s="2">
         <f t="shared" si="0"/>
-        <v>3.72825</v>
+        <v>3.7282500000000005</v>
       </c>
       <c r="AH45" s="2">
         <f t="shared" si="0"/>
@@ -5381,15 +4785,15 @@
       </c>
       <c r="AI45" s="2">
         <f t="shared" si="0"/>
-        <v>41.38225</v>
+        <v>41.382249999999999</v>
       </c>
     </row>
     <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>0.00498842592592593</v>
+        <v>4.98842592592593E-3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.438946759259259</v>
+        <v>0.43894675925925902</v>
       </c>
       <c r="C46">
         <v>85.18</v>
@@ -5422,7 +4826,7 @@
         <v>107.4</v>
       </c>
       <c r="M46">
-        <v>1086.15</v>
+        <v>1086.1500000000001</v>
       </c>
       <c r="N46">
         <v>1708.46</v>
@@ -5454,16 +4858,16 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>0.00510416666666667</v>
+        <v>5.10416666666667E-3</v>
       </c>
       <c r="B47" s="1">
-        <v>0.4390625</v>
+        <v>0.43906250000000002</v>
       </c>
       <c r="C47">
         <v>82.98</v>
       </c>
       <c r="D47">
-        <v>67.01</v>
+        <v>67.010000000000005</v>
       </c>
       <c r="E47">
         <v>5.56</v>
@@ -5522,10 +4926,10 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>0.00521990740740741</v>
+        <v>5.2199074074074101E-3</v>
       </c>
       <c r="B48" s="1">
-        <v>0.439178240740741</v>
+        <v>0.43917824074074102</v>
       </c>
       <c r="C48">
         <v>83.08</v>
@@ -5558,7 +4962,7 @@
         <v>103.89</v>
       </c>
       <c r="M48">
-        <v>1156.34</v>
+        <v>1156.3399999999999</v>
       </c>
       <c r="N48">
         <v>1818.86</v>
@@ -5590,10 +4994,10 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>0.00533564814814815</v>
+        <v>5.3356481481481501E-3</v>
       </c>
       <c r="B49" s="1">
-        <v>0.439293981481482</v>
+        <v>0.43929398148148202</v>
       </c>
       <c r="C49">
         <v>81.2</v>
@@ -5620,13 +5024,13 @@
         <v>114.85</v>
       </c>
       <c r="K49">
-        <v>69.85</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="L49">
         <v>101.98</v>
       </c>
       <c r="M49">
-        <v>1204.59</v>
+        <v>1204.5899999999999</v>
       </c>
       <c r="N49">
         <v>1894.75</v>
@@ -5658,10 +5062,10 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>0.00545138888888889</v>
+        <v>5.4513888888888902E-3</v>
       </c>
       <c r="B50" s="1">
-        <v>0.439409722222222</v>
+        <v>0.43940972222222202</v>
       </c>
       <c r="C50">
         <v>85.52</v>
@@ -5729,16 +5133,16 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>0.00556712962962963</v>
+        <v>5.5671296296296302E-3</v>
       </c>
       <c r="B51" s="1">
-        <v>0.439525462962963</v>
+        <v>0.43952546296296302</v>
       </c>
       <c r="C51">
         <v>98.92</v>
       </c>
       <c r="D51">
-        <v>69.99</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="E51">
         <v>6.95</v>
@@ -5797,10 +5201,10 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>0.00568287037037037</v>
+        <v>5.6828703703703702E-3</v>
       </c>
       <c r="B52" s="1">
-        <v>0.439641203703704</v>
+        <v>0.43964120370370402</v>
       </c>
       <c r="C52">
         <v>119.85</v>
@@ -5809,7 +5213,7 @@
         <v>71.39</v>
       </c>
       <c r="E52">
-        <v>8.55</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="F52">
         <v>5.44</v>
@@ -5865,10 +5269,10 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>0.00579861111111111</v>
+        <v>5.7986111111111103E-3</v>
       </c>
       <c r="B53" s="1">
-        <v>0.439756944444444</v>
+        <v>0.43975694444444402</v>
       </c>
       <c r="C53">
         <v>124.09</v>
@@ -5877,7 +5281,7 @@
         <v>76.12</v>
       </c>
       <c r="E53">
-        <v>9.45</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="F53">
         <v>6.01</v>
@@ -5889,7 +5293,7 @@
         <v>240</v>
       </c>
       <c r="I53">
-        <v>138.98</v>
+        <v>138.97999999999999</v>
       </c>
       <c r="J53">
         <v>113.5</v>
@@ -5933,16 +5337,16 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>0.00591435185185185</v>
+        <v>5.9143518518518503E-3</v>
       </c>
       <c r="B54" s="1">
-        <v>0.439872685185185</v>
+        <v>0.43987268518518502</v>
       </c>
       <c r="C54">
         <v>127.07</v>
       </c>
       <c r="D54">
-        <v>79.96</v>
+        <v>79.959999999999994</v>
       </c>
       <c r="E54">
         <v>10.16</v>
@@ -5978,7 +5382,7 @@
         <v>5.94</v>
       </c>
       <c r="P54">
-        <v>79.01</v>
+        <v>79.010000000000005</v>
       </c>
       <c r="Q54">
         <v>44.58</v>
@@ -6001,16 +5405,16 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>0.00603009259259259</v>
+        <v>6.0300925925925904E-3</v>
       </c>
       <c r="B55" s="1">
-        <v>0.439988425925926</v>
+        <v>0.43998842592592602</v>
       </c>
       <c r="C55">
         <v>126.45</v>
       </c>
       <c r="D55">
-        <v>76.46</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="E55">
         <v>9.67</v>
@@ -6019,7 +5423,7 @@
         <v>6.15</v>
       </c>
       <c r="G55">
-        <v>65.82</v>
+        <v>65.819999999999993</v>
       </c>
       <c r="H55">
         <v>224.91</v>
@@ -6069,10 +5473,10 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>0.00614583333333333</v>
+        <v>6.1458333333333304E-3</v>
       </c>
       <c r="B56" s="1">
-        <v>0.440104166666667</v>
+        <v>0.44010416666666702</v>
       </c>
       <c r="C56">
         <v>125.83</v>
@@ -6137,16 +5541,16 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>0.00626157407407407</v>
+        <v>6.2615740740740696E-3</v>
       </c>
       <c r="B57" s="1">
-        <v>0.440219907407407</v>
+        <v>0.44021990740740702</v>
       </c>
       <c r="C57">
         <v>122.24</v>
       </c>
       <c r="D57">
-        <v>74.4</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="E57">
         <v>9.1</v>
@@ -6161,7 +5565,7 @@
         <v>252</v>
       </c>
       <c r="I57">
-        <v>156.02</v>
+        <v>156.02000000000001</v>
       </c>
       <c r="J57">
         <v>116.29</v>
@@ -6205,16 +5609,16 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>0.00637731481481481</v>
+        <v>6.3773148148148096E-3</v>
       </c>
       <c r="B58" s="1">
-        <v>0.440335648148148</v>
+        <v>0.44033564814814802</v>
       </c>
       <c r="C58">
         <v>127.59</v>
       </c>
       <c r="D58">
-        <v>77.21</v>
+        <v>77.209999999999994</v>
       </c>
       <c r="E58">
         <v>9.85</v>
@@ -6223,7 +5627,7 @@
         <v>6.26</v>
       </c>
       <c r="G58">
-        <v>66.54</v>
+        <v>66.540000000000006</v>
       </c>
       <c r="H58">
         <v>240.76</v>
@@ -6273,16 +5677,16 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>0.00649305555555555</v>
+        <v>6.4930555555555497E-3</v>
       </c>
       <c r="B59" s="1">
-        <v>0.440451388888889</v>
+        <v>0.44045138888888902</v>
       </c>
       <c r="C59">
-        <v>129.89</v>
+        <v>129.88999999999999</v>
       </c>
       <c r="D59">
-        <v>75.07</v>
+        <v>75.069999999999993</v>
       </c>
       <c r="E59">
         <v>9.75</v>
@@ -6309,7 +5713,7 @@
         <v>113.15</v>
       </c>
       <c r="M59">
-        <v>550.58</v>
+        <v>550.58000000000004</v>
       </c>
       <c r="N59">
         <v>866.02</v>
@@ -6341,19 +5745,19 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>0.0066087962962963</v>
+        <v>6.6087962962963001E-3</v>
       </c>
       <c r="B60" s="1">
-        <v>0.44056712962963</v>
+        <v>0.44056712962963002</v>
       </c>
       <c r="C60">
         <v>129.24</v>
       </c>
       <c r="D60">
-        <v>75.04</v>
+        <v>75.040000000000006</v>
       </c>
       <c r="E60">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F60">
         <v>6.17</v>
@@ -6409,13 +5813,13 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>0.00672453703703704</v>
+        <v>6.7245370370370402E-3</v>
       </c>
       <c r="B61" s="1">
-        <v>0.44068287037037</v>
+        <v>0.44068287037037002</v>
       </c>
       <c r="C61">
-        <v>133.58</v>
+        <v>133.58000000000001</v>
       </c>
       <c r="D61">
         <v>78.14</v>
@@ -6477,10 +5881,10 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>0.00684027777777778</v>
+        <v>6.8402777777777802E-3</v>
       </c>
       <c r="B62" s="1">
-        <v>0.440798611111111</v>
+        <v>0.44079861111111102</v>
       </c>
       <c r="C62">
         <v>133.34</v>
@@ -6495,7 +5899,7 @@
         <v>6.2</v>
       </c>
       <c r="G62">
-        <v>66.26</v>
+        <v>66.260000000000005</v>
       </c>
       <c r="H62">
         <v>284.73</v>
@@ -6513,7 +5917,7 @@
         <v>110.35</v>
       </c>
       <c r="M62">
-        <v>552.83</v>
+        <v>552.83000000000004</v>
       </c>
       <c r="N62">
         <v>869.56</v>
@@ -6545,10 +5949,10 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>0.00695601851851852</v>
+        <v>6.9560185185185202E-3</v>
       </c>
       <c r="B63" s="1">
-        <v>0.440914351851852</v>
+        <v>0.44091435185185202</v>
       </c>
       <c r="C63">
         <v>136.62</v>
@@ -6613,13 +6017,13 @@
     </row>
     <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>0.00707175925925926</v>
+        <v>7.0717592592592603E-3</v>
       </c>
       <c r="B64" s="1">
-        <v>0.441030092592593</v>
+        <v>0.44103009259259301</v>
       </c>
       <c r="C64">
-        <v>135.95</v>
+        <v>135.94999999999999</v>
       </c>
       <c r="D64">
         <v>73.62</v>
@@ -6658,7 +6062,7 @@
         <v>5.83</v>
       </c>
       <c r="P64">
-        <v>80.04</v>
+        <v>80.040000000000006</v>
       </c>
       <c r="Q64">
         <v>41.97</v>
@@ -6681,10 +6085,10 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>0.0071875</v>
+        <v>7.1875000000000003E-3</v>
       </c>
       <c r="B65" s="1">
-        <v>0.441145833333333</v>
+        <v>0.44114583333333302</v>
       </c>
       <c r="C65">
         <v>138.69</v>
@@ -6726,7 +6130,7 @@
         <v>6.14</v>
       </c>
       <c r="P65">
-        <v>80.74</v>
+        <v>80.739999999999995</v>
       </c>
       <c r="Q65">
         <v>40.79</v>
@@ -6749,10 +6153,10 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>0.00730324074074074</v>
+        <v>7.3032407407407404E-3</v>
       </c>
       <c r="B66" s="1">
-        <v>0.441261574074074</v>
+        <v>0.44126157407407401</v>
       </c>
       <c r="C66">
         <v>140.76</v>
@@ -6767,7 +6171,7 @@
         <v>6.77</v>
       </c>
       <c r="G66">
-        <v>65.54</v>
+        <v>65.540000000000006</v>
       </c>
       <c r="H66">
         <v>222.17</v>
@@ -6817,16 +6221,16 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>0.00741898148148148</v>
+        <v>7.4189814814814804E-3</v>
       </c>
       <c r="B67" s="1">
-        <v>0.441377314814815</v>
+        <v>0.44137731481481501</v>
       </c>
       <c r="C67">
         <v>140.79</v>
       </c>
       <c r="D67">
-        <v>70.49</v>
+        <v>70.489999999999995</v>
       </c>
       <c r="E67">
         <v>9.93</v>
@@ -6841,7 +6245,7 @@
         <v>221.22</v>
       </c>
       <c r="I67">
-        <v>137.11</v>
+        <v>137.11000000000001</v>
       </c>
       <c r="J67">
         <v>113.09</v>
@@ -6885,10 +6289,10 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>0.00753472222222222</v>
+        <v>7.5347222222222204E-3</v>
       </c>
       <c r="B68" s="1">
-        <v>0.441493055555556</v>
+        <v>0.44149305555555601</v>
       </c>
       <c r="C68">
         <v>137.97</v>
@@ -6933,7 +6337,7 @@
         <v>74.11</v>
       </c>
       <c r="Q68">
-        <v>40.37</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="S68" t="s">
         <v>41</v>
@@ -6956,19 +6360,19 @@
     </row>
     <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>0.00765046296296296</v>
+        <v>7.6504629629629596E-3</v>
       </c>
       <c r="B69" s="1">
-        <v>0.441608796296296</v>
+        <v>0.44160879629629601</v>
       </c>
       <c r="C69">
         <v>140.72</v>
       </c>
       <c r="D69">
-        <v>70.15</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="E69">
-        <v>9.87</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="F69">
         <v>6.28</v>
@@ -7001,7 +6405,7 @@
         <v>5.57</v>
       </c>
       <c r="P69">
-        <v>72.49</v>
+        <v>72.489999999999995</v>
       </c>
       <c r="Q69">
         <v>43.59</v>
@@ -7024,10 +6428,10 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>0.0077662037037037</v>
+        <v>7.7662037037036996E-3</v>
       </c>
       <c r="B70" s="1">
-        <v>0.441724537037037</v>
+        <v>0.44172453703703701</v>
       </c>
       <c r="C70">
         <v>143.31</v>
@@ -7069,7 +6473,7 @@
         <v>5.81</v>
       </c>
       <c r="P70">
-        <v>70.32</v>
+        <v>70.319999999999993</v>
       </c>
       <c r="Q70">
         <v>42.7</v>
@@ -7092,10 +6496,10 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>0.00788194444444444</v>
+        <v>7.8819444444444397E-3</v>
       </c>
       <c r="B71" s="1">
-        <v>0.441840277777778</v>
+        <v>0.44184027777777801</v>
       </c>
       <c r="C71">
         <v>146.09</v>
@@ -7160,16 +6564,16 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>0.00799768518518519</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="B72" s="1">
-        <v>0.441956018518519</v>
+        <v>0.44195601851851901</v>
       </c>
       <c r="C72">
-        <v>152.77</v>
+        <v>152.77000000000001</v>
       </c>
       <c r="D72">
-        <v>74.15</v>
+        <v>74.150000000000006</v>
       </c>
       <c r="E72">
         <v>11.32</v>
@@ -7184,7 +6588,7 @@
         <v>199.84</v>
       </c>
       <c r="I72">
-        <v>136.83</v>
+        <v>136.83000000000001</v>
       </c>
       <c r="J72">
         <v>112.76</v>
@@ -7228,10 +6632,10 @@
     </row>
     <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>0.00811342592592592</v>
+        <v>8.1134259259259198E-3</v>
       </c>
       <c r="B73" s="1">
-        <v>0.442071759259259</v>
+        <v>0.44207175925925901</v>
       </c>
       <c r="C73">
         <v>155.18</v>
@@ -7296,10 +6700,10 @@
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>0.00822916666666667</v>
+        <v>8.2291666666666693E-3</v>
       </c>
       <c r="B74" s="1">
-        <v>0.4421875</v>
+        <v>0.44218750000000001</v>
       </c>
       <c r="C74">
         <v>157.49</v>
@@ -7364,10 +6768,10 @@
     </row>
     <row r="75" spans="1:35">
       <c r="A75" s="1">
-        <v>0.00834490740740741</v>
+        <v>8.3449074074074103E-3</v>
       </c>
       <c r="B75" s="1">
-        <v>0.442303240740741</v>
+        <v>0.44230324074074101</v>
       </c>
       <c r="C75">
         <v>160.13</v>
@@ -7432,10 +6836,10 @@
     </row>
     <row r="76" spans="1:35">
       <c r="A76" s="1">
-        <v>0.00846064814814815</v>
+        <v>8.4606481481481494E-3</v>
       </c>
       <c r="B76" s="1">
-        <v>0.442418981481481</v>
+        <v>0.44241898148148101</v>
       </c>
       <c r="C76">
         <v>160.04</v>
@@ -7471,13 +6875,13 @@
         <v>412.34</v>
       </c>
       <c r="N76">
-        <v>648.58</v>
+        <v>648.58000000000004</v>
       </c>
       <c r="O76">
         <v>6.86</v>
       </c>
       <c r="P76">
-        <v>78.85</v>
+        <v>78.849999999999994</v>
       </c>
       <c r="Q76">
         <v>55.58</v>
@@ -7500,13 +6904,13 @@
     </row>
     <row r="77" spans="1:35">
       <c r="A77" s="1">
-        <v>0.00857638888888889</v>
+        <v>8.5763888888888903E-3</v>
       </c>
       <c r="B77" s="1">
-        <v>0.442534722222222</v>
+        <v>0.44253472222222201</v>
       </c>
       <c r="C77">
-        <v>162.7</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="D77">
         <v>78.08</v>
@@ -7568,16 +6972,16 @@
     </row>
     <row r="78" spans="1:35">
       <c r="A78" s="1">
-        <v>0.00869212962962963</v>
+        <v>8.6921296296296295E-3</v>
       </c>
       <c r="B78" s="1">
-        <v>0.442650462962963</v>
+        <v>0.44265046296296301</v>
       </c>
       <c r="C78">
         <v>162.35</v>
       </c>
       <c r="D78">
-        <v>81.68</v>
+        <v>81.680000000000007</v>
       </c>
       <c r="E78">
         <v>13.26</v>
@@ -7607,7 +7011,7 @@
         <v>379.26</v>
       </c>
       <c r="N78">
-        <v>596.55</v>
+        <v>596.54999999999995</v>
       </c>
       <c r="O78">
         <v>7.26</v>
@@ -7623,7 +7027,7 @@
       </c>
       <c r="U78" s="2">
         <f>AVERAGE(C72:C78)</f>
-        <v>158.665714285714</v>
+        <v>158.66571428571427</v>
       </c>
       <c r="V78" s="2">
         <f t="shared" ref="V78:AI78" si="1">AVERAGE(D72:D78)</f>
@@ -7631,39 +7035,39 @@
       </c>
       <c r="W78" s="2">
         <f t="shared" si="1"/>
-        <v>12.0814285714286</v>
+        <v>12.081428571428573</v>
       </c>
       <c r="X78" s="2">
         <f t="shared" si="1"/>
-        <v>7.68285714285714</v>
+        <v>7.6828571428571433</v>
       </c>
       <c r="Y78" s="2">
         <f t="shared" si="1"/>
-        <v>63.1771428571428</v>
+        <v>63.177142857142847</v>
       </c>
       <c r="Z78" s="2">
         <f t="shared" si="1"/>
-        <v>198.625714285714</v>
+        <v>198.62571428571431</v>
       </c>
       <c r="AA78" s="2">
         <f t="shared" si="1"/>
-        <v>136.187142857143</v>
+        <v>136.18714285714287</v>
       </c>
       <c r="AB78" s="2">
         <f t="shared" si="1"/>
-        <v>113.09</v>
+        <v>113.09000000000002</v>
       </c>
       <c r="AC78" s="2">
         <f t="shared" si="1"/>
-        <v>47.8628571428571</v>
+        <v>47.862857142857138</v>
       </c>
       <c r="AD78" s="2">
         <f t="shared" si="1"/>
-        <v>120.471428571429</v>
+        <v>120.47142857142856</v>
       </c>
       <c r="AE78" s="2">
         <f t="shared" si="1"/>
-        <v>415.96</v>
+        <v>415.96000000000004</v>
       </c>
       <c r="AF78" s="2">
         <f t="shared" si="1"/>
@@ -7671,23 +7075,23 @@
       </c>
       <c r="AG78" s="2">
         <f t="shared" si="1"/>
-        <v>6.59857142857143</v>
+        <v>6.5985714285714279</v>
       </c>
       <c r="AH78" s="2">
         <f t="shared" si="1"/>
-        <v>74.4214285714286</v>
+        <v>74.421428571428578</v>
       </c>
       <c r="AI78" s="2">
         <f t="shared" si="1"/>
-        <v>59.4757142857143</v>
+        <v>59.47571428571429</v>
       </c>
     </row>
     <row r="79" spans="1:35">
       <c r="A79" s="1">
-        <v>0.00880787037037037</v>
+        <v>8.8078703703703704E-3</v>
       </c>
       <c r="B79" s="1">
-        <v>0.442766203703704</v>
+        <v>0.44276620370370401</v>
       </c>
       <c r="C79">
         <v>165.05</v>
@@ -7717,7 +7121,7 @@
         <v>48</v>
       </c>
       <c r="L79">
-        <v>129.17</v>
+        <v>129.16999999999999</v>
       </c>
       <c r="M79">
         <v>367.84</v>
@@ -7752,10 +7156,10 @@
     </row>
     <row r="80" spans="1:35">
       <c r="A80" s="1">
-        <v>0.00892361111111111</v>
+        <v>8.9236111111111096E-3</v>
       </c>
       <c r="B80" s="1">
-        <v>0.442881944444444</v>
+        <v>0.44288194444444401</v>
       </c>
       <c r="C80">
         <v>165.76</v>
@@ -7791,13 +7195,13 @@
         <v>380.07</v>
       </c>
       <c r="N80">
-        <v>597.82</v>
+        <v>597.82000000000005</v>
       </c>
       <c r="O80">
         <v>7.52</v>
       </c>
       <c r="P80">
-        <v>80.32</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="Q80">
         <v>56.98</v>
@@ -7820,10 +7224,10 @@
     </row>
     <row r="81" spans="1:35">
       <c r="A81" s="1">
-        <v>0.00903935185185185</v>
+        <v>9.0393518518518505E-3</v>
       </c>
       <c r="B81" s="1">
-        <v>0.442997685185185</v>
+        <v>0.44299768518518501</v>
       </c>
       <c r="C81">
         <v>168.76</v>
@@ -7859,7 +7263,7 @@
         <v>373.55</v>
       </c>
       <c r="N81">
-        <v>587.57</v>
+        <v>587.57000000000005</v>
       </c>
       <c r="O81">
         <v>7.52</v>
@@ -7875,79 +7279,79 @@
       </c>
       <c r="U81" s="2">
         <f>AVERAGE(C72:C81)</f>
-        <v>161.023</v>
+        <v>161.02299999999997</v>
       </c>
       <c r="V81" s="2">
         <f t="shared" ref="V81:AI81" si="2">AVERAGE(D72:D81)</f>
-        <v>77.905</v>
+        <v>77.905000000000001</v>
       </c>
       <c r="W81" s="2">
         <f t="shared" si="2"/>
-        <v>12.557</v>
+        <v>12.556999999999999</v>
       </c>
       <c r="X81" s="2">
         <f t="shared" si="2"/>
-        <v>7.985</v>
+        <v>7.9850000000000012</v>
       </c>
       <c r="Y81" s="2">
         <f t="shared" si="2"/>
-        <v>63.786</v>
+        <v>63.785999999999987</v>
       </c>
       <c r="Z81" s="2">
         <f t="shared" si="2"/>
-        <v>197.388</v>
+        <v>197.38800000000001</v>
       </c>
       <c r="AA81" s="2">
         <f t="shared" si="2"/>
-        <v>141.569</v>
+        <v>141.56900000000002</v>
       </c>
       <c r="AB81" s="2">
         <f t="shared" si="2"/>
-        <v>114.284</v>
+        <v>114.28400000000002</v>
       </c>
       <c r="AC81" s="2">
         <f t="shared" si="2"/>
-        <v>47.793</v>
+        <v>47.792999999999992</v>
       </c>
       <c r="AD81" s="2">
         <f t="shared" si="2"/>
-        <v>122.103</v>
+        <v>122.10299999999998</v>
       </c>
       <c r="AE81" s="2">
         <f t="shared" si="2"/>
-        <v>403.318</v>
+        <v>403.3180000000001</v>
       </c>
       <c r="AF81" s="2">
         <f t="shared" si="2"/>
-        <v>634.395</v>
+        <v>634.39499999999998</v>
       </c>
       <c r="AG81" s="2">
         <f t="shared" si="2"/>
-        <v>6.901</v>
+        <v>6.9009999999999989</v>
       </c>
       <c r="AH81" s="2">
         <f t="shared" si="2"/>
-        <v>75.942</v>
+        <v>75.941999999999993</v>
       </c>
       <c r="AI81" s="2">
         <f t="shared" si="2"/>
-        <v>59.348</v>
+        <v>59.347999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:35">
       <c r="A82" s="1">
-        <v>0.00915509259259259</v>
+        <v>9.1550925925925897E-3</v>
       </c>
       <c r="B82" s="1">
-        <v>0.443113425925926</v>
+        <v>0.44311342592592601</v>
       </c>
       <c r="C82">
         <v>166.88</v>
       </c>
       <c r="D82">
-        <v>81.6</v>
-      </c>
-      <c r="E82">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="E82" s="4">
         <v>13.62</v>
       </c>
       <c r="F82">
@@ -7984,7 +7388,7 @@
         <v>81.63</v>
       </c>
       <c r="Q82">
-        <v>71.85</v>
+        <v>71.849999999999994</v>
       </c>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
@@ -8004,10 +7408,10 @@
     </row>
     <row r="83" spans="1:35">
       <c r="A83" s="1">
-        <v>0.00927083333333333</v>
+        <v>9.2708333333333306E-3</v>
       </c>
       <c r="B83" s="1">
-        <v>0.443229166666667</v>
+        <v>0.44322916666666701</v>
       </c>
       <c r="C83">
         <v>169.98</v>
@@ -8015,14 +7419,14 @@
       <c r="D83">
         <v>81.58</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="4">
         <v>13.87</v>
       </c>
       <c r="F83">
         <v>8.82</v>
       </c>
       <c r="G83">
-        <v>65.76</v>
+        <v>65.760000000000005</v>
       </c>
       <c r="H83">
         <v>190.21</v>
@@ -8043,13 +7447,13 @@
         <v>367.58</v>
       </c>
       <c r="N83">
-        <v>578.19</v>
+        <v>578.19000000000005</v>
       </c>
       <c r="O83">
         <v>7.7</v>
       </c>
       <c r="P83">
-        <v>75.04</v>
+        <v>75.040000000000006</v>
       </c>
       <c r="Q83">
         <v>61.43</v>
@@ -8072,25 +7476,25 @@
     </row>
     <row r="84" spans="1:35">
       <c r="A84" s="1">
-        <v>0.00938657407407407</v>
+        <v>9.3865740740740698E-3</v>
       </c>
       <c r="B84" s="1">
-        <v>0.443344907407407</v>
+        <v>0.44334490740740701</v>
       </c>
       <c r="C84">
         <v>170.13</v>
       </c>
       <c r="D84">
-        <v>81.1</v>
-      </c>
-      <c r="E84">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="E84" s="4">
         <v>13.8</v>
       </c>
       <c r="F84">
         <v>8.77</v>
       </c>
       <c r="G84">
-        <v>66.15</v>
+        <v>66.150000000000006</v>
       </c>
       <c r="H84">
         <v>185</v>
@@ -8111,7 +7515,7 @@
         <v>368.31</v>
       </c>
       <c r="N84">
-        <v>579.33</v>
+        <v>579.33000000000004</v>
       </c>
       <c r="O84">
         <v>7.64</v>
@@ -8127,74 +7531,74 @@
       </c>
       <c r="U84" s="2">
         <f>AVERAGE(C72:C84)</f>
-        <v>162.863076923077</v>
+        <v>162.8630769230769</v>
       </c>
       <c r="V84" s="2">
         <f t="shared" ref="V84:AI84" si="3">AVERAGE(D72:D84)</f>
-        <v>78.7176923076923</v>
+        <v>78.717692307692317</v>
       </c>
       <c r="W84" s="2">
         <f t="shared" si="3"/>
-        <v>12.8353846153846</v>
+        <v>12.835384615384616</v>
       </c>
       <c r="X84" s="2">
         <f t="shared" si="3"/>
-        <v>8.16153846153846</v>
+        <v>8.1615384615384627</v>
       </c>
       <c r="Y84" s="2">
         <f t="shared" si="3"/>
-        <v>64.2969230769231</v>
+        <v>64.296923076923065</v>
       </c>
       <c r="Z84" s="2">
         <f t="shared" si="3"/>
-        <v>195.4</v>
+        <v>195.40000000000003</v>
       </c>
       <c r="AA84" s="2">
         <f t="shared" si="3"/>
-        <v>146.228461538462</v>
+        <v>146.22846153846154</v>
       </c>
       <c r="AB84" s="2">
         <f t="shared" si="3"/>
-        <v>115.327692307692</v>
+        <v>115.32769230769233</v>
       </c>
       <c r="AC84" s="2">
         <f t="shared" si="3"/>
-        <v>47.5253846153846</v>
+        <v>47.52538461538461</v>
       </c>
       <c r="AD84" s="2">
         <f t="shared" si="3"/>
-        <v>122.399230769231</v>
+        <v>122.39923076923074</v>
       </c>
       <c r="AE84" s="2">
         <f t="shared" si="3"/>
-        <v>396.296923076923</v>
+        <v>396.29692307692318</v>
       </c>
       <c r="AF84" s="2">
         <f t="shared" si="3"/>
-        <v>623.352307692308</v>
+        <v>623.3523076923077</v>
       </c>
       <c r="AG84" s="2">
         <f t="shared" si="3"/>
-        <v>7.07307692307692</v>
+        <v>7.0730769230769219</v>
       </c>
       <c r="AH84" s="2">
         <f t="shared" si="3"/>
-        <v>76.1176923076923</v>
+        <v>76.117692307692309</v>
       </c>
       <c r="AI84" s="2">
         <f t="shared" si="3"/>
-        <v>59.9661538461538</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
+        <v>59.966153846153844</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35">
       <c r="A85" s="1">
-        <v>0.00950231481481482</v>
+        <v>9.5023148148148193E-3</v>
       </c>
       <c r="B85" s="1">
-        <v>0.443460648148148</v>
+        <v>0.44346064814814801</v>
       </c>
       <c r="C85">
-        <v>161.64</v>
+        <v>161.63999999999999</v>
       </c>
       <c r="D85">
         <v>81.86</v>
@@ -8209,7 +7613,7 @@
         <v>68.59</v>
       </c>
       <c r="H85">
-        <v>274.22</v>
+        <v>274.22000000000003</v>
       </c>
       <c r="I85">
         <v>188.57</v>
@@ -8239,15 +7643,15 @@
         <v>31.48</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:35">
       <c r="A86" s="1">
-        <v>0.00961805555555556</v>
+        <v>9.6180555555555602E-3</v>
       </c>
       <c r="B86" s="1">
-        <v>0.443576388888889</v>
+        <v>0.44357638888888901</v>
       </c>
       <c r="C86">
-        <v>155.77</v>
+        <v>155.77000000000001</v>
       </c>
       <c r="D86">
         <v>82.36</v>
@@ -8259,7 +7663,7 @@
         <v>8.15</v>
       </c>
       <c r="G86">
-        <v>68.1</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="H86">
         <v>249.69</v>
@@ -8280,7 +7684,7 @@
         <v>405.1</v>
       </c>
       <c r="N86">
-        <v>637.19</v>
+        <v>637.19000000000005</v>
       </c>
       <c r="O86">
         <v>7.27</v>
@@ -8292,15 +7696,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:35">
       <c r="A87" s="1">
-        <v>0.0097337962962963</v>
+        <v>9.7337962962962994E-3</v>
       </c>
       <c r="B87" s="1">
-        <v>0.44369212962963</v>
+        <v>0.44369212962963001</v>
       </c>
       <c r="C87">
-        <v>152.67</v>
+        <v>152.66999999999999</v>
       </c>
       <c r="D87">
         <v>84.45</v>
@@ -8309,13 +7713,13 @@
         <v>12.89</v>
       </c>
       <c r="F87">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G87">
         <v>68.67</v>
       </c>
       <c r="H87">
-        <v>274.4</v>
+        <v>274.39999999999998</v>
       </c>
       <c r="I87">
         <v>189.42</v>
@@ -8333,7 +7737,7 @@
         <v>413.92</v>
       </c>
       <c r="N87">
-        <v>651.07</v>
+        <v>651.07000000000005</v>
       </c>
       <c r="O87">
         <v>7.51</v>
@@ -8345,15 +7749,15 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:35">
       <c r="A88" s="1">
-        <v>0.00984953703703704</v>
+        <v>9.8495370370370403E-3</v>
       </c>
       <c r="B88" s="1">
-        <v>0.44380787037037</v>
+        <v>0.44380787037037001</v>
       </c>
       <c r="C88">
-        <v>144.77</v>
+        <v>144.77000000000001</v>
       </c>
       <c r="D88">
         <v>80.69</v>
@@ -8365,7 +7769,7 @@
         <v>7.43</v>
       </c>
       <c r="G88">
-        <v>68.07</v>
+        <v>68.069999999999993</v>
       </c>
       <c r="H88">
         <v>333.5</v>
@@ -8395,49 +7799,40 @@
         <v>86.03</v>
       </c>
       <c r="Q88">
-        <v>35.09</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>35.090000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35">
       <c r="A90" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>